--- a/src/module/dependent/^DJI.xlsx
+++ b/src/module/dependent/^DJI.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -43,6 +40,11 @@
   </si>
   <si>
     <t>HM3UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -963,1628 +965,3659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>42005</v>
+        <v>39814</v>
       </c>
       <c r="B2">
-        <v>17823.070313</v>
+        <v>8772.25</v>
       </c>
       <c r="C2">
-        <v>17951.779297000001</v>
+        <v>9088.0595699999994</v>
       </c>
       <c r="D2">
-        <v>17136.300781000002</v>
+        <v>7909.0297849999997</v>
       </c>
       <c r="E2">
-        <v>17164.949218999998</v>
+        <v>8000.8598629999997</v>
       </c>
       <c r="F2">
-        <v>17164.949218999998</v>
+        <v>8000.8598629999997</v>
       </c>
       <c r="G2">
-        <v>2173260000</v>
+        <v>6261980000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>C2/B2-1</f>
+        <v>3.6000976944341456E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>42036</v>
+        <v>39845</v>
       </c>
       <c r="B3">
-        <v>17169.990234000001</v>
+        <v>8000.6201170000004</v>
       </c>
       <c r="C3">
-        <v>18244.380859000001</v>
+        <v>8315.0703130000002</v>
       </c>
       <c r="D3">
-        <v>17037.759765999999</v>
+        <v>7033.6201170000004</v>
       </c>
       <c r="E3">
-        <v>18132.699218999998</v>
+        <v>7062.9301759999998</v>
       </c>
       <c r="F3">
-        <v>18132.699218999998</v>
+        <v>7062.9301759999998</v>
       </c>
       <c r="G3">
-        <v>1751250000</v>
+        <v>7134360000</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <f t="shared" ref="H3:H66" si="0">C3/B3-1</f>
+        <v>3.9303227925026052E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>42064</v>
+        <v>39873</v>
       </c>
       <c r="B4">
-        <v>18134.050781000002</v>
+        <v>7056.4799800000001</v>
       </c>
       <c r="C4">
-        <v>18288.630859000001</v>
+        <v>7931.330078</v>
       </c>
       <c r="D4">
-        <v>17579.269531000002</v>
+        <v>6469.9501950000003</v>
       </c>
       <c r="E4">
-        <v>17776.119140999999</v>
+        <v>7608.919922</v>
       </c>
       <c r="F4">
-        <v>17776.119140999999</v>
+        <v>7608.919922</v>
       </c>
       <c r="G4">
-        <v>2470480000</v>
+        <v>10561060000</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.12397825834971044</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>42095</v>
+        <v>39904</v>
       </c>
       <c r="B5">
-        <v>17778.519531000002</v>
+        <v>7606.1298829999996</v>
       </c>
       <c r="C5">
-        <v>18175.560547000001</v>
+        <v>8307.5097659999992</v>
       </c>
       <c r="D5">
-        <v>17585.009765999999</v>
+        <v>7483.8701170000004</v>
       </c>
       <c r="E5">
-        <v>17840.519531000002</v>
+        <v>8168.1201170000004</v>
       </c>
       <c r="F5">
-        <v>17840.519531000002</v>
+        <v>8168.1201170000004</v>
       </c>
       <c r="G5">
-        <v>2174880000</v>
+        <v>7795900000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.2212451508041138E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>42125</v>
+        <v>39934</v>
       </c>
       <c r="B6">
-        <v>17859.269531000002</v>
+        <v>8167.4101559999999</v>
       </c>
       <c r="C6">
-        <v>18351.359375</v>
+        <v>8591.9296880000002</v>
       </c>
       <c r="D6">
-        <v>17733.119140999999</v>
+        <v>8099.3100590000004</v>
       </c>
       <c r="E6">
-        <v>18010.679688</v>
+        <v>8500.3300780000009</v>
       </c>
       <c r="F6">
-        <v>18010.679688</v>
+        <v>8500.3300780000009</v>
       </c>
       <c r="G6">
-        <v>1832450000</v>
+        <v>6734390000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.1977251526683421E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>42156</v>
+        <v>39965</v>
       </c>
       <c r="B7">
-        <v>18017.820313</v>
+        <v>8501.5302730000003</v>
       </c>
       <c r="C7">
-        <v>18188.810547000001</v>
+        <v>8877.9296880000002</v>
       </c>
       <c r="D7">
-        <v>17576.5</v>
+        <v>8259.4296880000002</v>
       </c>
       <c r="E7">
-        <v>17619.509765999999</v>
+        <v>8447</v>
       </c>
       <c r="F7">
-        <v>17619.509765999999</v>
+        <v>8447</v>
       </c>
       <c r="G7">
-        <v>2219240000</v>
+        <v>5524080000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.4274313319262903E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>42186</v>
+        <v>39995</v>
       </c>
       <c r="B8">
-        <v>17638.119140999999</v>
+        <v>8447.5302730000003</v>
       </c>
       <c r="C8">
-        <v>18137.119140999999</v>
+        <v>9246.4296880000002</v>
       </c>
       <c r="D8">
-        <v>17399.169922000001</v>
+        <v>8087.1899409999996</v>
       </c>
       <c r="E8">
-        <v>17689.859375</v>
+        <v>9171.6103519999997</v>
       </c>
       <c r="F8">
-        <v>17689.859375</v>
+        <v>9171.6103519999997</v>
       </c>
       <c r="G8">
-        <v>2034220000</v>
+        <v>4902340000</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.4571950520667913E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>42217</v>
+        <v>40026</v>
       </c>
       <c r="B9">
-        <v>17696.740234000001</v>
+        <v>9173.6503909999992</v>
       </c>
       <c r="C9">
-        <v>17704.759765999999</v>
+        <v>9630.2001949999994</v>
       </c>
       <c r="D9">
-        <v>15370.330078000001</v>
+        <v>9116.5195309999999</v>
       </c>
       <c r="E9">
-        <v>16528.029297000001</v>
+        <v>9496.2802730000003</v>
       </c>
       <c r="F9">
-        <v>16528.029297000001</v>
+        <v>9496.2802730000003</v>
       </c>
       <c r="G9">
-        <v>2726340000</v>
+        <v>4042210000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.9767517241327219E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>42248</v>
+        <v>40057</v>
       </c>
       <c r="B10">
-        <v>16528.029297000001</v>
+        <v>9492.3203130000002</v>
       </c>
       <c r="C10">
-        <v>16933.429688</v>
+        <v>9917.9902340000008</v>
       </c>
       <c r="D10">
-        <v>15942.370117</v>
+        <v>9252.9296880000002</v>
       </c>
       <c r="E10">
-        <v>16284.700194999999</v>
+        <v>9712.2802730000003</v>
       </c>
       <c r="F10">
-        <v>16284.700194999999</v>
+        <v>9712.2802730000003</v>
       </c>
       <c r="G10">
-        <v>2724080000</v>
+        <v>4478480000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.4843611147111551E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>42278</v>
+        <v>40087</v>
       </c>
       <c r="B11">
-        <v>16278.620117</v>
+        <v>9711.5996090000008</v>
       </c>
       <c r="C11">
-        <v>17799.960938</v>
+        <v>10119.469727</v>
       </c>
       <c r="D11">
-        <v>16013.660156</v>
+        <v>9430.0800780000009</v>
       </c>
       <c r="E11">
-        <v>17663.539063</v>
+        <v>9712.7304690000001</v>
       </c>
       <c r="F11">
-        <v>17663.539063</v>
+        <v>9712.7304690000001</v>
       </c>
       <c r="G11">
-        <v>2605470000</v>
+        <v>5151150000</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4.1998242763428451E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>42309</v>
+        <v>40118</v>
       </c>
       <c r="B12">
-        <v>17672.619140999999</v>
+        <v>9712.1298829999996</v>
       </c>
       <c r="C12">
-        <v>17977.849609000001</v>
+        <v>10495.610352</v>
       </c>
       <c r="D12">
-        <v>17210.429688</v>
+        <v>9678.9501949999994</v>
       </c>
       <c r="E12">
-        <v>17719.919922000001</v>
+        <v>10344.839844</v>
       </c>
       <c r="F12">
-        <v>17719.919922000001</v>
+        <v>10344.839844</v>
       </c>
       <c r="G12">
-        <v>2334610000</v>
+        <v>3813550000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.0670303881684724E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>42339</v>
+        <v>40148</v>
       </c>
       <c r="B13">
-        <v>17719.720702999999</v>
+        <v>10343.820313</v>
       </c>
       <c r="C13">
-        <v>17901.580077999999</v>
+        <v>10580.330078000001</v>
       </c>
       <c r="D13">
-        <v>17116.730468999998</v>
+        <v>10235.629883</v>
       </c>
       <c r="E13">
-        <v>17425.029297000001</v>
+        <v>10428.049805000001</v>
       </c>
       <c r="F13">
-        <v>17425.029297000001</v>
+        <v>10428.049805000001</v>
       </c>
       <c r="G13">
-        <v>2521440000</v>
+        <v>4174040000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.2864836959972878E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>42370</v>
+        <v>40179</v>
       </c>
       <c r="B14">
-        <v>17405.480468999998</v>
+        <v>10430.690430000001</v>
       </c>
       <c r="C14">
-        <v>17405.480468999998</v>
+        <v>10729.889648</v>
       </c>
       <c r="D14">
-        <v>15450.559569999999</v>
+        <v>10043.75</v>
       </c>
       <c r="E14">
-        <v>16466.300781000002</v>
+        <v>10067.330078000001</v>
       </c>
       <c r="F14">
-        <v>16466.300781000002</v>
+        <v>10067.330078000001</v>
       </c>
       <c r="G14">
-        <v>2844080000</v>
+        <v>4424700000</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.8684507512509949E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>42401</v>
+        <v>40210</v>
       </c>
       <c r="B15">
-        <v>16453.630859000001</v>
+        <v>10068.990234000001</v>
       </c>
       <c r="C15">
-        <v>16795.980468999998</v>
+        <v>10438.549805000001</v>
       </c>
       <c r="D15">
-        <v>15503.009765999999</v>
+        <v>9835.0898440000001</v>
       </c>
       <c r="E15">
-        <v>16516.5</v>
+        <v>10325.259765999999</v>
       </c>
       <c r="F15">
-        <v>16516.5</v>
+        <v>10325.259765999999</v>
       </c>
       <c r="G15">
-        <v>2491810000</v>
+        <v>4279660000</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.6702744010229216E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>42430</v>
+        <v>40238</v>
       </c>
       <c r="B16">
-        <v>16545.669922000001</v>
+        <v>10326.099609000001</v>
       </c>
       <c r="C16">
-        <v>17790.109375</v>
+        <v>10955.480469</v>
       </c>
       <c r="D16">
-        <v>16545.669922000001</v>
+        <v>10326.099609000001</v>
       </c>
       <c r="E16">
-        <v>17685.089843999998</v>
+        <v>10856.629883</v>
       </c>
       <c r="F16">
-        <v>17685.089843999998</v>
+        <v>10856.629883</v>
       </c>
       <c r="G16">
-        <v>2407750000</v>
+        <v>4388530000</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6.0950492812547052E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>42461</v>
+        <v>40269</v>
       </c>
       <c r="B17">
-        <v>17661.740234000001</v>
+        <v>10857.309569999999</v>
       </c>
       <c r="C17">
-        <v>18167.630859000001</v>
+        <v>11258.009765999999</v>
       </c>
       <c r="D17">
-        <v>17484.230468999998</v>
+        <v>10844.089844</v>
       </c>
       <c r="E17">
-        <v>17773.640625</v>
+        <v>11008.610352</v>
       </c>
       <c r="F17">
-        <v>17773.640625</v>
+        <v>11008.610352</v>
       </c>
       <c r="G17">
-        <v>2096650000</v>
+        <v>4237550000</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.690603030304862E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>42491</v>
+        <v>40299</v>
       </c>
       <c r="B18">
-        <v>17783.779297000001</v>
+        <v>11009.599609000001</v>
       </c>
       <c r="C18">
-        <v>17934.609375</v>
+        <v>11177.669921999999</v>
       </c>
       <c r="D18">
-        <v>17331.070313</v>
+        <v>9774.4804690000001</v>
       </c>
       <c r="E18">
-        <v>17787.199218999998</v>
+        <v>10136.629883</v>
       </c>
       <c r="F18">
-        <v>17787.199218999998</v>
+        <v>10136.629883</v>
       </c>
       <c r="G18">
-        <v>1879010000</v>
+        <v>5605690000</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.5265797028858996E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>42522</v>
+        <v>40330</v>
       </c>
       <c r="B19">
-        <v>17754.550781000002</v>
+        <v>10133.940430000001</v>
       </c>
       <c r="C19">
-        <v>18016</v>
+        <v>10594.160156</v>
       </c>
       <c r="D19">
-        <v>17063.080077999999</v>
+        <v>9753.8398440000001</v>
       </c>
       <c r="E19">
-        <v>17929.990234000001</v>
+        <v>9774.0195309999999</v>
       </c>
       <c r="F19">
-        <v>17929.990234000001</v>
+        <v>9774.0195309999999</v>
       </c>
       <c r="G19">
-        <v>2350020000</v>
+        <v>4941680000</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.5413699555366227E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>42552</v>
+        <v>40360</v>
       </c>
       <c r="B20">
-        <v>17924.240234000001</v>
+        <v>9773.2695309999999</v>
       </c>
       <c r="C20">
-        <v>18622.009765999999</v>
+        <v>10584.990234000001</v>
       </c>
       <c r="D20">
-        <v>17713.449218999998</v>
+        <v>9614.3203130000002</v>
       </c>
       <c r="E20">
-        <v>18432.240234000001</v>
+        <v>10465.940430000001</v>
       </c>
       <c r="F20">
-        <v>18432.240234000001</v>
+        <v>10465.940430000001</v>
       </c>
       <c r="G20">
-        <v>1816520000</v>
+        <v>4243320000</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8.3055184390985026E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>42583</v>
+        <v>40391</v>
       </c>
       <c r="B21">
-        <v>18434.5</v>
+        <v>10468.820313</v>
       </c>
       <c r="C21">
-        <v>18722.609375</v>
+        <v>10719.940430000001</v>
       </c>
       <c r="D21">
-        <v>18247.789063</v>
+        <v>9936.6201170000004</v>
       </c>
       <c r="E21">
-        <v>18400.880859000001</v>
+        <v>10014.719727</v>
       </c>
       <c r="F21">
-        <v>18400.880859000001</v>
+        <v>10014.719727</v>
       </c>
       <c r="G21">
-        <v>1695750000</v>
+        <v>4117550000</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.3987432154906951E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>42614</v>
+        <v>40422</v>
       </c>
       <c r="B22">
-        <v>18396.570313</v>
+        <v>10016.009765999999</v>
       </c>
       <c r="C22">
-        <v>18551.539063</v>
+        <v>10948.879883</v>
       </c>
       <c r="D22">
-        <v>17992.210938</v>
+        <v>10016.009765999999</v>
       </c>
       <c r="E22">
-        <v>18308.150390999999</v>
+        <v>10788.049805000001</v>
       </c>
       <c r="F22">
-        <v>18308.150390999999</v>
+        <v>10788.049805000001</v>
       </c>
       <c r="G22">
-        <v>2101120000</v>
+        <v>3764970000</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.3137900101364579E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>42644</v>
+        <v>40452</v>
       </c>
       <c r="B23">
-        <v>18279.599609000001</v>
+        <v>10789.719727</v>
       </c>
       <c r="C23">
-        <v>18399.960938</v>
+        <v>11247.599609000001</v>
       </c>
       <c r="D23">
-        <v>17959.949218999998</v>
+        <v>10711.120117</v>
       </c>
       <c r="E23">
-        <v>18142.419922000001</v>
+        <v>11118.490234000001</v>
       </c>
       <c r="F23">
-        <v>18142.419922000001</v>
+        <v>11118.490234000001</v>
       </c>
       <c r="G23">
-        <v>1793690000</v>
+        <v>3787250000</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.2436679875401229E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>42675</v>
+        <v>40483</v>
       </c>
       <c r="B24">
-        <v>18158.240234000001</v>
+        <v>11120.299805000001</v>
       </c>
       <c r="C24">
-        <v>19225.289063</v>
+        <v>11451.530273</v>
       </c>
       <c r="D24">
-        <v>17883.560547000001</v>
+        <v>10929.280273</v>
       </c>
       <c r="E24">
-        <v>19123.580077999999</v>
+        <v>11006.019531</v>
       </c>
       <c r="F24">
-        <v>19123.580077999999</v>
+        <v>11006.019531</v>
       </c>
       <c r="G24">
-        <v>2107770000</v>
+        <v>3808130000</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.9786109530164806E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>42705</v>
+        <v>40513</v>
       </c>
       <c r="B25">
-        <v>19149.199218999998</v>
+        <v>11007.230469</v>
       </c>
       <c r="C25">
-        <v>19987.630859000001</v>
+        <v>11625</v>
       </c>
       <c r="D25">
-        <v>19138.789063</v>
+        <v>11007.230469</v>
       </c>
       <c r="E25">
-        <v>19762.599609000001</v>
+        <v>11577.509765999999</v>
       </c>
       <c r="F25">
-        <v>19762.599609000001</v>
+        <v>11577.509765999999</v>
       </c>
       <c r="G25">
-        <v>5952470000</v>
+        <v>3252900000</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5.6123975303310258E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>42736</v>
+        <v>40544</v>
       </c>
       <c r="B26">
-        <v>19872.859375</v>
+        <v>11577.429688</v>
       </c>
       <c r="C26">
-        <v>20125.580077999999</v>
+        <v>12020.519531</v>
       </c>
       <c r="D26">
-        <v>19677.939452999999</v>
+        <v>11573.870117</v>
       </c>
       <c r="E26">
-        <v>19864.089843999998</v>
+        <v>11891.929688</v>
       </c>
       <c r="F26">
-        <v>19864.089843999998</v>
+        <v>11891.929688</v>
       </c>
       <c r="G26">
-        <v>6482900000</v>
+        <v>3681720000</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8271866462662452E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>42767</v>
+        <v>40575</v>
       </c>
       <c r="B27">
-        <v>19923.810547000001</v>
+        <v>11892.5</v>
       </c>
       <c r="C27">
-        <v>20851.330077999999</v>
+        <v>12391.290039</v>
       </c>
       <c r="D27">
-        <v>19831.089843999998</v>
+        <v>11892.5</v>
       </c>
       <c r="E27">
-        <v>20812.240234000001</v>
+        <v>12226.339844</v>
       </c>
       <c r="F27">
-        <v>20812.240234000001</v>
+        <v>12226.339844</v>
       </c>
       <c r="G27">
-        <v>6185580000</v>
+        <v>3220480000</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4.1941563085978517E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>42795</v>
+        <v>40603</v>
       </c>
       <c r="B28">
-        <v>20957.289063</v>
+        <v>12226.490234000001</v>
       </c>
       <c r="C28">
-        <v>21169.109375</v>
+        <v>12383.459961</v>
       </c>
       <c r="D28">
-        <v>20412.800781000002</v>
+        <v>11555.480469</v>
       </c>
       <c r="E28">
-        <v>20663.220702999999</v>
+        <v>12319.730469</v>
       </c>
       <c r="F28">
-        <v>20663.220702999999</v>
+        <v>12319.730469</v>
       </c>
       <c r="G28">
-        <v>6941970000</v>
+        <v>3851830000</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.2838494449003202E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>42826</v>
+        <v>40634</v>
       </c>
       <c r="B29">
-        <v>20665.169922000001</v>
+        <v>12321.019531</v>
       </c>
       <c r="C29">
-        <v>21070.900390999999</v>
+        <v>12832.830078000001</v>
       </c>
       <c r="D29">
-        <v>20379.550781000002</v>
+        <v>12093.889648</v>
       </c>
       <c r="E29">
-        <v>20940.509765999999</v>
+        <v>12810.540039</v>
       </c>
       <c r="F29">
-        <v>20940.509765999999</v>
+        <v>12810.540039</v>
       </c>
       <c r="G29">
-        <v>5392630000</v>
+        <v>3321090000</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.1539626303835675E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>42856</v>
+        <v>40664</v>
       </c>
       <c r="B30">
-        <v>20962.730468999998</v>
+        <v>12810.160156</v>
       </c>
       <c r="C30">
-        <v>21112.320313</v>
+        <v>12876</v>
       </c>
       <c r="D30">
-        <v>20553.449218999998</v>
+        <v>12309.519531</v>
       </c>
       <c r="E30">
-        <v>21008.650390999999</v>
+        <v>12569.790039</v>
       </c>
       <c r="F30">
-        <v>21008.650390999999</v>
+        <v>12569.790039</v>
       </c>
       <c r="G30">
-        <v>6613570000</v>
+        <v>3578020000</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.1396581462068713E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>42887</v>
+        <v>40695</v>
       </c>
       <c r="B31">
-        <v>21030.550781000002</v>
+        <v>12569.410156</v>
       </c>
       <c r="C31">
-        <v>21535.029297000001</v>
+        <v>12569.490234000001</v>
       </c>
       <c r="D31">
-        <v>20994.220702999999</v>
+        <v>11862.530273</v>
       </c>
       <c r="E31">
-        <v>21349.630859000001</v>
+        <v>12414.339844</v>
       </c>
       <c r="F31">
-        <v>21349.630859000001</v>
+        <v>12414.339844</v>
       </c>
       <c r="G31">
-        <v>7214590000</v>
+        <v>3876460000</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.3708637880743879E-6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>42917</v>
+        <v>40725</v>
       </c>
       <c r="B32">
-        <v>21392.300781000002</v>
+        <v>12414.339844</v>
       </c>
       <c r="C32">
-        <v>21929.800781000002</v>
+        <v>12753.889648</v>
       </c>
       <c r="D32">
-        <v>21279.300781000002</v>
+        <v>12083.450194999999</v>
       </c>
       <c r="E32">
-        <v>21891.119140999999</v>
+        <v>12143.240234000001</v>
       </c>
       <c r="F32">
-        <v>21891.119140999999</v>
+        <v>12143.240234000001</v>
       </c>
       <c r="G32">
-        <v>5569720000</v>
+        <v>3092480000</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7351418461780685E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>42948</v>
+        <v>40756</v>
       </c>
       <c r="B33">
-        <v>21961.419922000001</v>
+        <v>12144.219727</v>
       </c>
       <c r="C33">
-        <v>22179.109375</v>
+        <v>12282.419921999999</v>
       </c>
       <c r="D33">
-        <v>21600.339843999998</v>
+        <v>10604.070313</v>
       </c>
       <c r="E33">
-        <v>21948.099609000001</v>
+        <v>11613.530273</v>
       </c>
       <c r="F33">
-        <v>21948.099609000001</v>
+        <v>11613.530273</v>
       </c>
       <c r="G33">
-        <v>6150060000</v>
+        <v>6203230000</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.1379915557089504E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>42979</v>
+        <v>40787</v>
       </c>
       <c r="B34">
-        <v>21981.769531000002</v>
+        <v>11613.299805000001</v>
       </c>
       <c r="C34">
-        <v>22419.509765999999</v>
+        <v>11716.839844</v>
       </c>
       <c r="D34">
-        <v>21709.630859000001</v>
+        <v>10597.139648</v>
       </c>
       <c r="E34">
-        <v>22405.089843999998</v>
+        <v>10913.379883</v>
       </c>
       <c r="F34">
-        <v>22405.089843999998</v>
+        <v>10913.379883</v>
       </c>
       <c r="G34">
-        <v>6342130000</v>
+        <v>4396520000</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.9156433346722075E-3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>43009</v>
+        <v>40817</v>
       </c>
       <c r="B35">
-        <v>22423.470702999999</v>
+        <v>10912.099609000001</v>
       </c>
       <c r="C35">
-        <v>23485.25</v>
+        <v>12284.309569999999</v>
       </c>
       <c r="D35">
-        <v>22416</v>
+        <v>10404.490234000001</v>
       </c>
       <c r="E35">
-        <v>23377.240234000001</v>
+        <v>11955.009765999999</v>
       </c>
       <c r="F35">
-        <v>23377.240234000001</v>
+        <v>11955.009765999999</v>
       </c>
       <c r="G35">
-        <v>7302910000</v>
+        <v>3907730000</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.12575123121752285</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>43040</v>
+        <v>40848</v>
       </c>
       <c r="B36">
-        <v>23442.900390999999</v>
+        <v>11951.530273</v>
       </c>
       <c r="C36">
-        <v>24327.820313</v>
+        <v>12187.509765999999</v>
       </c>
       <c r="D36">
-        <v>23242.75</v>
+        <v>11231.429688</v>
       </c>
       <c r="E36">
-        <v>24272.349609000001</v>
+        <v>12045.679688</v>
       </c>
       <c r="F36">
-        <v>24272.349609000001</v>
+        <v>12045.679688</v>
       </c>
       <c r="G36">
-        <v>7335640000</v>
+        <v>3263110000</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.9744709473154654E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>43070</v>
+        <v>40878</v>
       </c>
       <c r="B37">
-        <v>24305.400390999999</v>
+        <v>12046.209961</v>
       </c>
       <c r="C37">
-        <v>24876.070313</v>
+        <v>12328.469727</v>
       </c>
       <c r="D37">
-        <v>23921.900390999999</v>
+        <v>11735.190430000001</v>
       </c>
       <c r="E37">
-        <v>24719.220702999999</v>
+        <v>12217.559569999999</v>
       </c>
       <c r="F37">
-        <v>24719.220702999999</v>
+        <v>12217.559569999999</v>
       </c>
       <c r="G37">
-        <v>6589890000</v>
+        <v>3071480000</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.3431416762103918E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>43101</v>
+        <v>40909</v>
       </c>
       <c r="B38">
-        <v>24809.349609000001</v>
+        <v>12221.190430000001</v>
       </c>
       <c r="C38">
-        <v>26616.710938</v>
+        <v>12841.950194999999</v>
       </c>
       <c r="D38">
-        <v>24741.699218999998</v>
+        <v>12221.190430000001</v>
       </c>
       <c r="E38">
-        <v>26149.390625</v>
+        <v>12632.910156</v>
       </c>
       <c r="F38">
-        <v>26149.390625</v>
+        <v>12632.910156</v>
       </c>
       <c r="G38">
-        <v>9116920000</v>
+        <v>2981080000</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5.0793723291978843E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>43132</v>
+        <v>40940</v>
       </c>
       <c r="B39">
-        <v>26083.039063</v>
+        <v>12632.759765999999</v>
       </c>
       <c r="C39">
-        <v>26306.699218999998</v>
+        <v>13055.75</v>
       </c>
       <c r="D39">
-        <v>23360.289063</v>
+        <v>12632.759765999999</v>
       </c>
       <c r="E39">
-        <v>25029.199218999998</v>
+        <v>12952.070313</v>
       </c>
       <c r="F39">
-        <v>25029.199218999998</v>
+        <v>12952.070313</v>
       </c>
       <c r="G39">
-        <v>9450250000</v>
+        <v>2712170000</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3483596762319712E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>43160</v>
+        <v>40969</v>
       </c>
       <c r="B40">
-        <v>25024.039063</v>
+        <v>12952.290039</v>
       </c>
       <c r="C40">
-        <v>25449.150390999999</v>
+        <v>13289.080078000001</v>
       </c>
       <c r="D40">
-        <v>23509.060547000001</v>
+        <v>12734.860352</v>
       </c>
       <c r="E40">
-        <v>24103.109375</v>
+        <v>13212.040039</v>
       </c>
       <c r="F40">
-        <v>24103.109375</v>
+        <v>13212.040039</v>
       </c>
       <c r="G40">
-        <v>8873040000</v>
+        <v>3203390000</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.6002354640446645E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>43191</v>
+        <v>41000</v>
       </c>
       <c r="B41">
-        <v>24076.599609000001</v>
+        <v>13211.360352</v>
       </c>
       <c r="C41">
-        <v>24858.970702999999</v>
+        <v>13297.110352</v>
       </c>
       <c r="D41">
-        <v>23344.519531000002</v>
+        <v>12710.559569999999</v>
       </c>
       <c r="E41">
-        <v>24163.150390999999</v>
+        <v>13213.629883</v>
       </c>
       <c r="F41">
-        <v>24163.150390999999</v>
+        <v>13213.629883</v>
       </c>
       <c r="G41">
-        <v>8064550000</v>
+        <v>2574900000</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6.4906260759907131E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>43221</v>
+        <v>41030</v>
       </c>
       <c r="B42">
-        <v>24117.289063</v>
+        <v>13214.160156</v>
       </c>
       <c r="C42">
-        <v>25086.490234000001</v>
+        <v>13338.660156</v>
       </c>
       <c r="D42">
-        <v>23531.310547000001</v>
+        <v>12311.559569999999</v>
       </c>
       <c r="E42">
-        <v>24415.839843999998</v>
+        <v>12393.450194999999</v>
       </c>
       <c r="F42">
-        <v>24415.839843999998</v>
+        <v>12393.450194999999</v>
       </c>
       <c r="G42">
-        <v>7278020000</v>
+        <v>3050000000</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9.4217111439707235E-3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>43252</v>
+        <v>41061</v>
       </c>
       <c r="B43">
-        <v>24542.089843999998</v>
+        <v>12391.559569999999</v>
       </c>
       <c r="C43">
-        <v>25402.830077999999</v>
+        <v>12898.940430000001</v>
       </c>
       <c r="D43">
-        <v>23997.210938</v>
+        <v>12035.089844</v>
       </c>
       <c r="E43">
-        <v>24271.410156000002</v>
+        <v>12880.089844</v>
       </c>
       <c r="F43">
-        <v>24271.410156000002</v>
+        <v>12880.089844</v>
       </c>
       <c r="G43">
-        <v>7411110000</v>
+        <v>2923670000</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4.0945682190672184E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>43282</v>
+        <v>41091</v>
       </c>
       <c r="B44">
-        <v>24161.529297000001</v>
+        <v>12879.709961</v>
       </c>
       <c r="C44">
-        <v>25587.240234000001</v>
+        <v>13128.639648</v>
       </c>
       <c r="D44">
-        <v>24077.560547000001</v>
+        <v>12492.25</v>
       </c>
       <c r="E44">
-        <v>25415.189452999999</v>
+        <v>13008.679688</v>
       </c>
       <c r="F44">
-        <v>25415.189452999999</v>
+        <v>13008.679688</v>
       </c>
       <c r="G44">
-        <v>5408500000</v>
+        <v>2578110000</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.9327274275101169E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>43313</v>
+        <v>41122</v>
       </c>
       <c r="B45">
-        <v>25461.630859000001</v>
+        <v>13007.469727</v>
       </c>
       <c r="C45">
-        <v>26167.939452999999</v>
+        <v>13330.759765999999</v>
       </c>
       <c r="D45">
-        <v>24965.769531000002</v>
+        <v>12778.900390999999</v>
       </c>
       <c r="E45">
-        <v>25964.820313</v>
+        <v>13090.839844</v>
       </c>
       <c r="F45">
-        <v>25964.820313</v>
+        <v>13090.839844</v>
       </c>
       <c r="G45">
-        <v>5635410000</v>
+        <v>2267280000</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.4854183464208868E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>43344</v>
+        <v>41153</v>
       </c>
       <c r="B46">
-        <v>25916.070313</v>
+        <v>13092.150390999999</v>
       </c>
       <c r="C46">
-        <v>26769.160156000002</v>
+        <v>13653.240234000001</v>
       </c>
       <c r="D46">
-        <v>25754.320313</v>
+        <v>12977.089844</v>
       </c>
       <c r="E46">
-        <v>26458.310547000001</v>
+        <v>13437.129883</v>
       </c>
       <c r="F46">
-        <v>26458.310547000001</v>
+        <v>13437.129883</v>
       </c>
       <c r="G46">
-        <v>5262500000</v>
+        <v>2701270000</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4.2856965910330169E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>43374</v>
+        <v>41183</v>
       </c>
       <c r="B47">
-        <v>26598.359375</v>
+        <v>13437.660156</v>
       </c>
       <c r="C47">
-        <v>26951.810547000001</v>
+        <v>13661.870117</v>
       </c>
       <c r="D47">
-        <v>24122.230468999998</v>
+        <v>13017.370117</v>
       </c>
       <c r="E47">
-        <v>25115.759765999999</v>
+        <v>13096.459961</v>
       </c>
       <c r="F47">
-        <v>25115.759765999999</v>
+        <v>13096.459961</v>
       </c>
       <c r="G47">
-        <v>8373350000</v>
+        <v>2472600000</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.6685193582596236E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>43405</v>
+        <v>41214</v>
       </c>
       <c r="B48">
-        <v>25142.080077999999</v>
+        <v>13099.190430000001</v>
       </c>
       <c r="C48">
-        <v>26277.820313</v>
+        <v>13290.75</v>
       </c>
       <c r="D48">
-        <v>24268.740234000001</v>
+        <v>12471.490234000001</v>
       </c>
       <c r="E48">
-        <v>25538.460938</v>
+        <v>13025.580078000001</v>
       </c>
       <c r="F48">
-        <v>25538.460938</v>
+        <v>13025.580078000001</v>
       </c>
       <c r="G48">
-        <v>7226940000</v>
+        <v>2683930000</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.46237716768578E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>43435</v>
+        <v>41244</v>
       </c>
       <c r="B49">
-        <v>25779.570313</v>
+        <v>13027.730469</v>
       </c>
       <c r="C49">
-        <v>25980.210938</v>
+        <v>13365.860352</v>
       </c>
       <c r="D49">
-        <v>21712.529297000001</v>
+        <v>12883.889648</v>
       </c>
       <c r="E49">
-        <v>23327.460938</v>
+        <v>13104.139648</v>
       </c>
       <c r="F49">
-        <v>23327.460938</v>
+        <v>13104.139648</v>
       </c>
       <c r="G49">
-        <v>8101540000</v>
+        <v>2666750000</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5954626848060158E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>43466</v>
+        <v>41275</v>
       </c>
       <c r="B50">
-        <v>23058.609375</v>
+        <v>13104.299805000001</v>
       </c>
       <c r="C50">
-        <v>25109.619140999999</v>
+        <v>13969.990234000001</v>
       </c>
       <c r="D50">
-        <v>22638.410156000002</v>
+        <v>13104.299805000001</v>
       </c>
       <c r="E50">
-        <v>24999.669922000001</v>
+        <v>13860.580078000001</v>
       </c>
       <c r="F50">
-        <v>24999.669922000001</v>
+        <v>13860.580078000001</v>
       </c>
       <c r="G50">
-        <v>7189200000</v>
+        <v>2786680000</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6.6061555510939396E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>43497</v>
+        <v>41306</v>
       </c>
       <c r="B51">
-        <v>25025.310547000001</v>
+        <v>13860.580078000001</v>
       </c>
       <c r="C51">
-        <v>26241.419922000001</v>
+        <v>14149.150390999999</v>
       </c>
       <c r="D51">
-        <v>24883.039063</v>
+        <v>13784.009765999999</v>
       </c>
       <c r="E51">
-        <v>25916</v>
+        <v>14054.490234000001</v>
       </c>
       <c r="F51">
-        <v>25916</v>
+        <v>14054.490234000001</v>
       </c>
       <c r="G51">
-        <v>5434540000</v>
+        <v>2487580000</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.0819497551767485E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>43525</v>
+        <v>41334</v>
       </c>
       <c r="B52">
-        <v>26019.669922000001</v>
+        <v>14054.490234000001</v>
       </c>
       <c r="C52">
-        <v>26155.980468999998</v>
+        <v>14585.099609000001</v>
       </c>
       <c r="D52">
-        <v>25208</v>
+        <v>13937.599609000001</v>
       </c>
       <c r="E52">
-        <v>25928.679688</v>
+        <v>14578.540039</v>
       </c>
       <c r="F52">
-        <v>25928.679688</v>
+        <v>14578.540039</v>
       </c>
       <c r="G52">
-        <v>6734060000</v>
+        <v>2546320000</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.7753726116396047E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>43556</v>
+        <v>41365</v>
       </c>
       <c r="B53">
-        <v>26075.099609000001</v>
+        <v>14578.540039</v>
       </c>
       <c r="C53">
-        <v>26695.960938</v>
+        <v>14887.509765999999</v>
       </c>
       <c r="D53">
-        <v>26062.589843999998</v>
+        <v>14434.429688</v>
       </c>
       <c r="E53">
-        <v>26592.910156000002</v>
+        <v>14839.799805000001</v>
       </c>
       <c r="F53">
-        <v>26592.910156000002</v>
+        <v>14839.799805000001</v>
       </c>
       <c r="G53">
-        <v>5854600000</v>
+        <v>2920230000</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.1193461497067245E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>43586</v>
+        <v>41395</v>
       </c>
       <c r="B54">
-        <v>26639.060547000001</v>
+        <v>14839.799805000001</v>
       </c>
       <c r="C54">
-        <v>26689.390625</v>
+        <v>15542.400390999999</v>
       </c>
       <c r="D54">
-        <v>24809.509765999999</v>
+        <v>14687.049805000001</v>
       </c>
       <c r="E54">
-        <v>24815.039063</v>
+        <v>15115.570313</v>
       </c>
       <c r="F54">
-        <v>24815.039063</v>
+        <v>15115.570313</v>
       </c>
       <c r="G54">
-        <v>6358230000</v>
+        <v>2771510000</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.7345691669187451E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>43617</v>
+        <v>41426</v>
       </c>
       <c r="B55">
-        <v>24830.160156000002</v>
+        <v>15123.549805000001</v>
       </c>
       <c r="C55">
-        <v>26907.369140999999</v>
+        <v>15340.089844</v>
       </c>
       <c r="D55">
-        <v>24680.570313</v>
+        <v>14551.269531</v>
       </c>
       <c r="E55">
-        <v>26599.960938</v>
+        <v>14909.599609000001</v>
       </c>
       <c r="F55">
-        <v>26599.960938</v>
+        <v>14909.599609000001</v>
       </c>
       <c r="G55">
-        <v>5544390000</v>
+        <v>2929040000</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.43180696193701E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>43647</v>
+        <v>41456</v>
       </c>
       <c r="B56">
-        <v>26805.859375</v>
+        <v>14911.599609000001</v>
       </c>
       <c r="C56">
-        <v>27398.679688</v>
+        <v>15634.320313</v>
       </c>
       <c r="D56">
-        <v>26616.210938</v>
+        <v>14858.929688</v>
       </c>
       <c r="E56">
-        <v>26864.269531000002</v>
+        <v>15499.540039</v>
       </c>
       <c r="F56">
-        <v>26864.269531000002</v>
+        <v>15499.540039</v>
       </c>
       <c r="G56">
-        <v>5207470000</v>
+        <v>2623130000</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.8467013798023206E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>43678</v>
+        <v>41487</v>
       </c>
       <c r="B57">
-        <v>26879.859375</v>
+        <v>15503.849609000001</v>
       </c>
       <c r="C57">
-        <v>27175.589843999998</v>
+        <v>15658.429688</v>
       </c>
       <c r="D57">
-        <v>25339.599609000001</v>
+        <v>14760.410156</v>
       </c>
       <c r="E57">
-        <v>26403.279297000001</v>
+        <v>14810.309569999999</v>
       </c>
       <c r="F57">
-        <v>26403.279297000001</v>
+        <v>14810.309569999999</v>
       </c>
       <c r="G57">
-        <v>8170730000</v>
+        <v>2327660000</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9.9704320474229835E-3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>43709</v>
+        <v>41518</v>
       </c>
       <c r="B58">
-        <v>26198.259765999999</v>
+        <v>14801.549805000001</v>
       </c>
       <c r="C58">
-        <v>27306.730468999998</v>
+        <v>15709.580078000001</v>
       </c>
       <c r="D58">
-        <v>25978.220702999999</v>
+        <v>14777.480469</v>
       </c>
       <c r="E58">
-        <v>26916.830077999999</v>
+        <v>15129.669921999999</v>
       </c>
       <c r="F58">
-        <v>26916.830077999999</v>
+        <v>15129.669921999999</v>
       </c>
       <c r="G58">
-        <v>5045520000</v>
+        <v>2371540000</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6.13469727807332E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>43739</v>
+        <v>41548</v>
       </c>
       <c r="B59">
-        <v>26962.539063</v>
+        <v>15132.490234000001</v>
       </c>
       <c r="C59">
-        <v>27204.359375</v>
+        <v>15721</v>
       </c>
       <c r="D59">
-        <v>25743.460938</v>
+        <v>14719.429688</v>
       </c>
       <c r="E59">
-        <v>27046.230468999998</v>
+        <v>15545.75</v>
       </c>
       <c r="F59">
-        <v>27046.230468999998</v>
+        <v>15545.75</v>
       </c>
       <c r="G59">
-        <v>5658040000</v>
+        <v>2206620000</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.8890477171941162E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>43770</v>
+        <v>41579</v>
       </c>
       <c r="B60">
-        <v>27142.949218999998</v>
+        <v>15558.009765999999</v>
       </c>
       <c r="C60">
-        <v>28174.970702999999</v>
+        <v>16174.509765999999</v>
       </c>
       <c r="D60">
-        <v>27142.949218999998</v>
+        <v>15522.179688</v>
       </c>
       <c r="E60">
-        <v>28051.410156000002</v>
+        <v>16086.410156</v>
       </c>
       <c r="F60">
-        <v>28051.410156000002</v>
+        <v>16086.410156</v>
       </c>
       <c r="G60">
-        <v>4925180000</v>
+        <v>1820260000</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3.9625891053705287E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
-        <v>43800</v>
+        <v>41609</v>
       </c>
       <c r="B61">
-        <v>28109.740234000001</v>
+        <v>16087.120117</v>
       </c>
       <c r="C61">
-        <v>28701.660156000002</v>
+        <v>16588.25</v>
       </c>
       <c r="D61">
-        <v>27325.130859000001</v>
+        <v>15703.790039</v>
       </c>
       <c r="E61">
-        <v>28645.259765999999</v>
+        <v>16576.660156000002</v>
       </c>
       <c r="F61">
-        <v>28645.259765999999</v>
+        <v>16576.660156000002</v>
       </c>
       <c r="G61">
-        <v>4711940000</v>
+        <v>2057160000</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.1151000263274664E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>43826</v>
+        <v>41640</v>
       </c>
       <c r="B62">
-        <v>28675.339843999998</v>
+        <v>16572.169922000001</v>
       </c>
       <c r="C62">
+        <v>16573.070313</v>
+      </c>
+      <c r="D62">
+        <v>15617.549805000001</v>
+      </c>
+      <c r="E62">
+        <v>15698.849609000001</v>
+      </c>
+      <c r="F62">
+        <v>15698.849609000001</v>
+      </c>
+      <c r="G62">
+        <v>2177040000</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>5.4331509044214243E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B63">
+        <v>15697.690430000001</v>
+      </c>
+      <c r="C63">
+        <v>16398.949218999998</v>
+      </c>
+      <c r="D63">
+        <v>15340.690430000001</v>
+      </c>
+      <c r="E63">
+        <v>16321.709961</v>
+      </c>
+      <c r="F63">
+        <v>16321.709961</v>
+      </c>
+      <c r="G63">
+        <v>2067820000</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>4.4672736548544423E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B64">
+        <v>16321.709961</v>
+      </c>
+      <c r="C64">
+        <v>16505.699218999998</v>
+      </c>
+      <c r="D64">
+        <v>16046.990234000001</v>
+      </c>
+      <c r="E64">
+        <v>16457.660156000002</v>
+      </c>
+      <c r="F64">
+        <v>16457.660156000002</v>
+      </c>
+      <c r="G64">
+        <v>2095940000</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>1.1272670476293989E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B65">
+        <v>16458.050781000002</v>
+      </c>
+      <c r="C65">
+        <v>16631.630859000001</v>
+      </c>
+      <c r="D65">
+        <v>16015.320313</v>
+      </c>
+      <c r="E65">
+        <v>16580.839843999998</v>
+      </c>
+      <c r="F65">
+        <v>16580.839843999998</v>
+      </c>
+      <c r="G65">
+        <v>1986960000</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1.0546818715639672E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B66">
+        <v>16580.259765999999</v>
+      </c>
+      <c r="C66">
+        <v>16735.509765999999</v>
+      </c>
+      <c r="D66">
+        <v>16341.299805000001</v>
+      </c>
+      <c r="E66">
+        <v>16717.169922000001</v>
+      </c>
+      <c r="F66">
+        <v>16717.169922000001</v>
+      </c>
+      <c r="G66">
+        <v>1643160000</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>9.363544491526099E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B67">
+        <v>16716.849609000001</v>
+      </c>
+      <c r="C67">
+        <v>16978.019531000002</v>
+      </c>
+      <c r="D67">
+        <v>16673.650390999999</v>
+      </c>
+      <c r="E67">
+        <v>16826.599609000001</v>
+      </c>
+      <c r="F67">
+        <v>16826.599609000001</v>
+      </c>
+      <c r="G67">
+        <v>1755480000</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="1">C67/B67-1</f>
+        <v>1.5623154368715086E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B68">
+        <v>16828.529297000001</v>
+      </c>
+      <c r="C68">
+        <v>17151.560547000001</v>
+      </c>
+      <c r="D68">
+        <v>16563.300781000002</v>
+      </c>
+      <c r="E68">
+        <v>16563.300781000002</v>
+      </c>
+      <c r="F68">
+        <v>16563.300781000002</v>
+      </c>
+      <c r="G68">
+        <v>1690880000</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>1.9195453405282725E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B69">
+        <v>16561.699218999998</v>
+      </c>
+      <c r="C69">
+        <v>17153.800781000002</v>
+      </c>
+      <c r="D69">
+        <v>16333.780273</v>
+      </c>
+      <c r="E69">
+        <v>17098.449218999998</v>
+      </c>
+      <c r="F69">
+        <v>17098.449218999998</v>
+      </c>
+      <c r="G69">
+        <v>1482600000</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>3.5751256810697907E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B70">
+        <v>17097.419922000001</v>
+      </c>
+      <c r="C70">
+        <v>17350.640625</v>
+      </c>
+      <c r="D70">
+        <v>16934.429688</v>
+      </c>
+      <c r="E70">
+        <v>17042.900390999999</v>
+      </c>
+      <c r="F70">
+        <v>17042.900390999999</v>
+      </c>
+      <c r="G70">
+        <v>1870550000</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>1.4810462874235819E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B71">
+        <v>17040.460938</v>
+      </c>
+      <c r="C71">
+        <v>17395.539063</v>
+      </c>
+      <c r="D71">
+        <v>15855.120117</v>
+      </c>
+      <c r="E71">
+        <v>17390.519531000002</v>
+      </c>
+      <c r="F71">
+        <v>17390.519531000002</v>
+      </c>
+      <c r="G71">
+        <v>2903240000</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>2.0837354476027192E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B72">
+        <v>17390.900390999999</v>
+      </c>
+      <c r="C72">
+        <v>17894.830077999999</v>
+      </c>
+      <c r="D72">
+        <v>17278.359375</v>
+      </c>
+      <c r="E72">
+        <v>17828.240234000001</v>
+      </c>
+      <c r="F72">
+        <v>17828.240234000001</v>
+      </c>
+      <c r="G72">
+        <v>1516490000</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>2.8976630057681696E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B73">
+        <v>17827.269531000002</v>
+      </c>
+      <c r="C73">
+        <v>18103.449218999998</v>
+      </c>
+      <c r="D73">
+        <v>17067.589843999998</v>
+      </c>
+      <c r="E73">
+        <v>17823.070313</v>
+      </c>
+      <c r="F73">
+        <v>17823.070313</v>
+      </c>
+      <c r="G73">
+        <v>2216900000</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>1.5491979156973201E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B74">
+        <v>17823.070313</v>
+      </c>
+      <c r="C74">
+        <v>17951.779297000001</v>
+      </c>
+      <c r="D74">
+        <v>17136.300781000002</v>
+      </c>
+      <c r="E74">
+        <v>17164.949218999998</v>
+      </c>
+      <c r="F74">
+        <v>17164.949218999998</v>
+      </c>
+      <c r="G74">
+        <v>2173260000</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>7.221482143069391E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B75">
+        <v>17169.990234000001</v>
+      </c>
+      <c r="C75">
+        <v>18244.380859000001</v>
+      </c>
+      <c r="D75">
+        <v>17037.759765999999</v>
+      </c>
+      <c r="E75">
+        <v>18132.699218999998</v>
+      </c>
+      <c r="F75">
+        <v>18132.699218999998</v>
+      </c>
+      <c r="G75">
+        <v>1751250000</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>6.2573747006127833E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B76">
+        <v>18134.050781000002</v>
+      </c>
+      <c r="C76">
+        <v>18288.630859000001</v>
+      </c>
+      <c r="D76">
+        <v>17579.269531000002</v>
+      </c>
+      <c r="E76">
+        <v>17776.119140999999</v>
+      </c>
+      <c r="F76">
+        <v>17776.119140999999</v>
+      </c>
+      <c r="G76">
+        <v>2470480000</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>8.5242993894094621E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B77">
+        <v>17778.519531000002</v>
+      </c>
+      <c r="C77">
+        <v>18175.560547000001</v>
+      </c>
+      <c r="D77">
+        <v>17585.009765999999</v>
+      </c>
+      <c r="E77">
+        <v>17840.519531000002</v>
+      </c>
+      <c r="F77">
+        <v>17840.519531000002</v>
+      </c>
+      <c r="G77">
+        <v>2174880000</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>2.2332625352054158E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B78">
+        <v>17859.269531000002</v>
+      </c>
+      <c r="C78">
+        <v>18351.359375</v>
+      </c>
+      <c r="D78">
+        <v>17733.119140999999</v>
+      </c>
+      <c r="E78">
+        <v>18010.679688</v>
+      </c>
+      <c r="F78">
+        <v>18010.679688</v>
+      </c>
+      <c r="G78">
+        <v>1832450000</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>2.7553749784997139E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B79">
+        <v>18017.820313</v>
+      </c>
+      <c r="C79">
+        <v>18188.810547000001</v>
+      </c>
+      <c r="D79">
+        <v>17576.5</v>
+      </c>
+      <c r="E79">
+        <v>17619.509765999999</v>
+      </c>
+      <c r="F79">
+        <v>17619.509765999999</v>
+      </c>
+      <c r="G79">
+        <v>2219240000</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>9.4900621179261346E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B80">
+        <v>17638.119140999999</v>
+      </c>
+      <c r="C80">
+        <v>18137.119140999999</v>
+      </c>
+      <c r="D80">
+        <v>17399.169922000001</v>
+      </c>
+      <c r="E80">
+        <v>17689.859375</v>
+      </c>
+      <c r="F80">
+        <v>17689.859375</v>
+      </c>
+      <c r="G80">
+        <v>2034220000</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>2.8290998377489718E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B81">
+        <v>17696.740234000001</v>
+      </c>
+      <c r="C81">
+        <v>17704.759765999999</v>
+      </c>
+      <c r="D81">
+        <v>15370.330078000001</v>
+      </c>
+      <c r="E81">
+        <v>16528.029297000001</v>
+      </c>
+      <c r="F81">
+        <v>16528.029297000001</v>
+      </c>
+      <c r="G81">
+        <v>2726340000</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>4.5316436213438394E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B82">
+        <v>16528.029297000001</v>
+      </c>
+      <c r="C82">
+        <v>16933.429688</v>
+      </c>
+      <c r="D82">
+        <v>15942.370117</v>
+      </c>
+      <c r="E82">
+        <v>16284.700194999999</v>
+      </c>
+      <c r="F82">
+        <v>16284.700194999999</v>
+      </c>
+      <c r="G82">
+        <v>2724080000</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>2.4528053751307288E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B83">
+        <v>16278.620117</v>
+      </c>
+      <c r="C83">
+        <v>17799.960938</v>
+      </c>
+      <c r="D83">
+        <v>16013.660156</v>
+      </c>
+      <c r="E83">
+        <v>17663.539063</v>
+      </c>
+      <c r="F83">
+        <v>17663.539063</v>
+      </c>
+      <c r="G83">
+        <v>2605470000</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>9.3456374684439014E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B84">
+        <v>17672.619140999999</v>
+      </c>
+      <c r="C84">
+        <v>17977.849609000001</v>
+      </c>
+      <c r="D84">
+        <v>17210.429688</v>
+      </c>
+      <c r="E84">
+        <v>17719.919922000001</v>
+      </c>
+      <c r="F84">
+        <v>17719.919922000001</v>
+      </c>
+      <c r="G84">
+        <v>2334610000</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>1.7271377013488243E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B85">
+        <v>17719.720702999999</v>
+      </c>
+      <c r="C85">
+        <v>17901.580077999999</v>
+      </c>
+      <c r="D85">
+        <v>17116.730468999998</v>
+      </c>
+      <c r="E85">
+        <v>17425.029297000001</v>
+      </c>
+      <c r="F85">
+        <v>17425.029297000001</v>
+      </c>
+      <c r="G85">
+        <v>2521440000</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>1.0263106176905623E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B86">
+        <v>17405.480468999998</v>
+      </c>
+      <c r="C86">
+        <v>17405.480468999998</v>
+      </c>
+      <c r="D86">
+        <v>15450.559569999999</v>
+      </c>
+      <c r="E86">
+        <v>16466.300781000002</v>
+      </c>
+      <c r="F86">
+        <v>16466.300781000002</v>
+      </c>
+      <c r="G86">
+        <v>2844080000</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B87">
+        <v>16453.630859000001</v>
+      </c>
+      <c r="C87">
+        <v>16795.980468999998</v>
+      </c>
+      <c r="D87">
+        <v>15503.009765999999</v>
+      </c>
+      <c r="E87">
+        <v>16516.5</v>
+      </c>
+      <c r="F87">
+        <v>16516.5</v>
+      </c>
+      <c r="G87">
+        <v>2491810000</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>2.080693391834143E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B88">
+        <v>16545.669922000001</v>
+      </c>
+      <c r="C88">
+        <v>17790.109375</v>
+      </c>
+      <c r="D88">
+        <v>16545.669922000001</v>
+      </c>
+      <c r="E88">
+        <v>17685.089843999998</v>
+      </c>
+      <c r="F88">
+        <v>17685.089843999998</v>
+      </c>
+      <c r="G88">
+        <v>2407750000</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>7.5212394473391786E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B89">
+        <v>17661.740234000001</v>
+      </c>
+      <c r="C89">
+        <v>18167.630859000001</v>
+      </c>
+      <c r="D89">
+        <v>17484.230468999998</v>
+      </c>
+      <c r="E89">
+        <v>17773.640625</v>
+      </c>
+      <c r="F89">
+        <v>17773.640625</v>
+      </c>
+      <c r="G89">
+        <v>2096650000</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>2.8643305716054446E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B90">
+        <v>17783.779297000001</v>
+      </c>
+      <c r="C90">
+        <v>17934.609375</v>
+      </c>
+      <c r="D90">
+        <v>17331.070313</v>
+      </c>
+      <c r="E90">
+        <v>17787.199218999998</v>
+      </c>
+      <c r="F90">
+        <v>17787.199218999998</v>
+      </c>
+      <c r="G90">
+        <v>1879010000</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>8.481328714276426E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B91">
+        <v>17754.550781000002</v>
+      </c>
+      <c r="C91">
+        <v>18016</v>
+      </c>
+      <c r="D91">
+        <v>17063.080077999999</v>
+      </c>
+      <c r="E91">
+        <v>17929.990234000001</v>
+      </c>
+      <c r="F91">
+        <v>17929.990234000001</v>
+      </c>
+      <c r="G91">
+        <v>2350020000</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>1.472575804507481E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B92">
+        <v>17924.240234000001</v>
+      </c>
+      <c r="C92">
+        <v>18622.009765999999</v>
+      </c>
+      <c r="D92">
+        <v>17713.449218999998</v>
+      </c>
+      <c r="E92">
+        <v>18432.240234000001</v>
+      </c>
+      <c r="F92">
+        <v>18432.240234000001</v>
+      </c>
+      <c r="G92">
+        <v>1816520000</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>3.8928820574297918E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B93">
+        <v>18434.5</v>
+      </c>
+      <c r="C93">
+        <v>18722.609375</v>
+      </c>
+      <c r="D93">
+        <v>18247.789063</v>
+      </c>
+      <c r="E93">
+        <v>18400.880859000001</v>
+      </c>
+      <c r="F93">
+        <v>18400.880859000001</v>
+      </c>
+      <c r="G93">
+        <v>1695750000</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>1.5628814179934336E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B94">
+        <v>18396.570313</v>
+      </c>
+      <c r="C94">
+        <v>18551.539063</v>
+      </c>
+      <c r="D94">
+        <v>17992.210938</v>
+      </c>
+      <c r="E94">
+        <v>18308.150390999999</v>
+      </c>
+      <c r="F94">
+        <v>18308.150390999999</v>
+      </c>
+      <c r="G94">
+        <v>2101120000</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>8.423784833985648E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B95">
+        <v>18279.599609000001</v>
+      </c>
+      <c r="C95">
+        <v>18399.960938</v>
+      </c>
+      <c r="D95">
+        <v>17959.949218999998</v>
+      </c>
+      <c r="E95">
+        <v>18142.419922000001</v>
+      </c>
+      <c r="F95">
+        <v>18142.419922000001</v>
+      </c>
+      <c r="G95">
+        <v>1793690000</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>6.5844619999630982E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B96">
+        <v>18158.240234000001</v>
+      </c>
+      <c r="C96">
+        <v>19225.289063</v>
+      </c>
+      <c r="D96">
+        <v>17883.560547000001</v>
+      </c>
+      <c r="E96">
+        <v>19123.580077999999</v>
+      </c>
+      <c r="F96">
+        <v>19123.580077999999</v>
+      </c>
+      <c r="G96">
+        <v>2107770000</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>5.8763889851067619E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B97">
+        <v>19149.199218999998</v>
+      </c>
+      <c r="C97">
+        <v>19987.630859000001</v>
+      </c>
+      <c r="D97">
+        <v>19138.789063</v>
+      </c>
+      <c r="E97">
+        <v>19762.599609000001</v>
+      </c>
+      <c r="F97">
+        <v>19762.599609000001</v>
+      </c>
+      <c r="G97">
+        <v>5952470000</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>4.3784161959530055E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B98">
+        <v>19872.859375</v>
+      </c>
+      <c r="C98">
+        <v>20125.580077999999</v>
+      </c>
+      <c r="D98">
+        <v>19677.939452999999</v>
+      </c>
+      <c r="E98">
+        <v>19864.089843999998</v>
+      </c>
+      <c r="F98">
+        <v>19864.089843999998</v>
+      </c>
+      <c r="G98">
+        <v>6482900000</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>1.2716876732792759E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B99">
+        <v>19923.810547000001</v>
+      </c>
+      <c r="C99">
+        <v>20851.330077999999</v>
+      </c>
+      <c r="D99">
+        <v>19831.089843999998</v>
+      </c>
+      <c r="E99">
+        <v>20812.240234000001</v>
+      </c>
+      <c r="F99">
+        <v>20812.240234000001</v>
+      </c>
+      <c r="G99">
+        <v>6185580000</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>4.6553320149877564E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B100">
+        <v>20957.289063</v>
+      </c>
+      <c r="C100">
+        <v>21169.109375</v>
+      </c>
+      <c r="D100">
+        <v>20412.800781000002</v>
+      </c>
+      <c r="E100">
+        <v>20663.220702999999</v>
+      </c>
+      <c r="F100">
+        <v>20663.220702999999</v>
+      </c>
+      <c r="G100">
+        <v>6941970000</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>1.0107238172038624E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B101">
+        <v>20665.169922000001</v>
+      </c>
+      <c r="C101">
+        <v>21070.900390999999</v>
+      </c>
+      <c r="D101">
+        <v>20379.550781000002</v>
+      </c>
+      <c r="E101">
+        <v>20940.509765999999</v>
+      </c>
+      <c r="F101">
+        <v>20940.509765999999</v>
+      </c>
+      <c r="G101">
+        <v>5392630000</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>1.9633541390243314E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B102">
+        <v>20962.730468999998</v>
+      </c>
+      <c r="C102">
+        <v>21112.320313</v>
+      </c>
+      <c r="D102">
+        <v>20553.449218999998</v>
+      </c>
+      <c r="E102">
+        <v>21008.650390999999</v>
+      </c>
+      <c r="F102">
+        <v>21008.650390999999</v>
+      </c>
+      <c r="G102">
+        <v>6613570000</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>7.1359904293584187E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B103">
+        <v>21030.550781000002</v>
+      </c>
+      <c r="C103">
+        <v>21535.029297000001</v>
+      </c>
+      <c r="D103">
+        <v>20994.220702999999</v>
+      </c>
+      <c r="E103">
+        <v>21349.630859000001</v>
+      </c>
+      <c r="F103">
+        <v>21349.630859000001</v>
+      </c>
+      <c r="G103">
+        <v>7214590000</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>2.3987888917097244E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B104">
+        <v>21392.300781000002</v>
+      </c>
+      <c r="C104">
+        <v>21929.800781000002</v>
+      </c>
+      <c r="D104">
+        <v>21279.300781000002</v>
+      </c>
+      <c r="E104">
+        <v>21891.119140999999</v>
+      </c>
+      <c r="F104">
+        <v>21891.119140999999</v>
+      </c>
+      <c r="G104">
+        <v>5569720000</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>2.5125862126872844E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B105">
+        <v>21961.419922000001</v>
+      </c>
+      <c r="C105">
+        <v>22179.109375</v>
+      </c>
+      <c r="D105">
+        <v>21600.339843999998</v>
+      </c>
+      <c r="E105">
+        <v>21948.099609000001</v>
+      </c>
+      <c r="F105">
+        <v>21948.099609000001</v>
+      </c>
+      <c r="G105">
+        <v>6150060000</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>9.912357842669639E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B106">
+        <v>21981.769531000002</v>
+      </c>
+      <c r="C106">
+        <v>22419.509765999999</v>
+      </c>
+      <c r="D106">
+        <v>21709.630859000001</v>
+      </c>
+      <c r="E106">
+        <v>22405.089843999998</v>
+      </c>
+      <c r="F106">
+        <v>22405.089843999998</v>
+      </c>
+      <c r="G106">
+        <v>6342130000</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>1.9913785120104555E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B107">
+        <v>22423.470702999999</v>
+      </c>
+      <c r="C107">
+        <v>23485.25</v>
+      </c>
+      <c r="D107">
+        <v>22416</v>
+      </c>
+      <c r="E107">
+        <v>23377.240234000001</v>
+      </c>
+      <c r="F107">
+        <v>23377.240234000001</v>
+      </c>
+      <c r="G107">
+        <v>7302910000</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>4.7351246872677333E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B108">
+        <v>23442.900390999999</v>
+      </c>
+      <c r="C108">
+        <v>24327.820313</v>
+      </c>
+      <c r="D108">
+        <v>23242.75</v>
+      </c>
+      <c r="E108">
+        <v>24272.349609000001</v>
+      </c>
+      <c r="F108">
+        <v>24272.349609000001</v>
+      </c>
+      <c r="G108">
+        <v>7335640000</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>3.7747885596089992E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B109">
+        <v>24305.400390999999</v>
+      </c>
+      <c r="C109">
+        <v>24876.070313</v>
+      </c>
+      <c r="D109">
+        <v>23921.900390999999</v>
+      </c>
+      <c r="E109">
+        <v>24719.220702999999</v>
+      </c>
+      <c r="F109">
+        <v>24719.220702999999</v>
+      </c>
+      <c r="G109">
+        <v>6589890000</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>2.3479140965368073E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B110">
+        <v>24809.349609000001</v>
+      </c>
+      <c r="C110">
+        <v>26616.710938</v>
+      </c>
+      <c r="D110">
+        <v>24741.699218999998</v>
+      </c>
+      <c r="E110">
+        <v>26149.390625</v>
+      </c>
+      <c r="F110">
+        <v>26149.390625</v>
+      </c>
+      <c r="G110">
+        <v>9116920000</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>7.2850008463919869E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B111">
+        <v>26083.039063</v>
+      </c>
+      <c r="C111">
+        <v>26306.699218999998</v>
+      </c>
+      <c r="D111">
+        <v>23360.289063</v>
+      </c>
+      <c r="E111">
+        <v>25029.199218999998</v>
+      </c>
+      <c r="F111">
+        <v>25029.199218999998</v>
+      </c>
+      <c r="G111">
+        <v>9450250000</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>8.5749270037045466E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B112">
+        <v>25024.039063</v>
+      </c>
+      <c r="C112">
+        <v>25449.150390999999</v>
+      </c>
+      <c r="D112">
+        <v>23509.060547000001</v>
+      </c>
+      <c r="E112">
+        <v>24103.109375</v>
+      </c>
+      <c r="F112">
+        <v>24103.109375</v>
+      </c>
+      <c r="G112">
+        <v>8873040000</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>1.6988117982462692E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B113">
+        <v>24076.599609000001</v>
+      </c>
+      <c r="C113">
+        <v>24858.970702999999</v>
+      </c>
+      <c r="D113">
+        <v>23344.519531000002</v>
+      </c>
+      <c r="E113">
+        <v>24163.150390999999</v>
+      </c>
+      <c r="F113">
+        <v>24163.150390999999</v>
+      </c>
+      <c r="G113">
+        <v>8064550000</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>3.2495082640637607E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B114">
+        <v>24117.289063</v>
+      </c>
+      <c r="C114">
+        <v>25086.490234000001</v>
+      </c>
+      <c r="D114">
+        <v>23531.310547000001</v>
+      </c>
+      <c r="E114">
+        <v>24415.839843999998</v>
+      </c>
+      <c r="F114">
+        <v>24415.839843999998</v>
+      </c>
+      <c r="G114">
+        <v>7278020000</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>4.0186986541821623E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B115">
+        <v>24542.089843999998</v>
+      </c>
+      <c r="C115">
+        <v>25402.830077999999</v>
+      </c>
+      <c r="D115">
+        <v>23997.210938</v>
+      </c>
+      <c r="E115">
+        <v>24271.410156000002</v>
+      </c>
+      <c r="F115">
+        <v>24271.410156000002</v>
+      </c>
+      <c r="G115">
+        <v>7411110000</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>3.5072002403675917E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B116">
+        <v>24161.529297000001</v>
+      </c>
+      <c r="C116">
+        <v>25587.240234000001</v>
+      </c>
+      <c r="D116">
+        <v>24077.560547000001</v>
+      </c>
+      <c r="E116">
+        <v>25415.189452999999</v>
+      </c>
+      <c r="F116">
+        <v>25415.189452999999</v>
+      </c>
+      <c r="G116">
+        <v>5408500000</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>5.9007479182082267E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B117">
+        <v>25461.630859000001</v>
+      </c>
+      <c r="C117">
+        <v>26167.939452999999</v>
+      </c>
+      <c r="D117">
+        <v>24965.769531000002</v>
+      </c>
+      <c r="E117">
+        <v>25964.820313</v>
+      </c>
+      <c r="F117">
+        <v>25964.820313</v>
+      </c>
+      <c r="G117">
+        <v>5635410000</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>2.7740116016580219E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B118">
+        <v>25916.070313</v>
+      </c>
+      <c r="C118">
+        <v>26769.160156000002</v>
+      </c>
+      <c r="D118">
+        <v>25754.320313</v>
+      </c>
+      <c r="E118">
+        <v>26458.310547000001</v>
+      </c>
+      <c r="F118">
+        <v>26458.310547000001</v>
+      </c>
+      <c r="G118">
+        <v>5262500000</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>3.2917407334401183E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B119">
+        <v>26598.359375</v>
+      </c>
+      <c r="C119">
+        <v>26951.810547000001</v>
+      </c>
+      <c r="D119">
+        <v>24122.230468999998</v>
+      </c>
+      <c r="E119">
+        <v>25115.759765999999</v>
+      </c>
+      <c r="F119">
+        <v>25115.759765999999</v>
+      </c>
+      <c r="G119">
+        <v>8373350000</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>1.3288457645707741E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B120">
+        <v>25142.080077999999</v>
+      </c>
+      <c r="C120">
+        <v>26277.820313</v>
+      </c>
+      <c r="D120">
+        <v>24268.740234000001</v>
+      </c>
+      <c r="E120">
+        <v>25538.460938</v>
+      </c>
+      <c r="F120">
+        <v>25538.460938</v>
+      </c>
+      <c r="G120">
+        <v>7226940000</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="1"/>
+        <v>4.5172882731918662E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B121">
+        <v>25779.570313</v>
+      </c>
+      <c r="C121">
+        <v>25980.210938</v>
+      </c>
+      <c r="D121">
+        <v>21712.529297000001</v>
+      </c>
+      <c r="E121">
+        <v>23327.460938</v>
+      </c>
+      <c r="F121">
+        <v>23327.460938</v>
+      </c>
+      <c r="G121">
+        <v>8101540000</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>7.782931312040553E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B122">
+        <v>23058.609375</v>
+      </c>
+      <c r="C122">
+        <v>25109.619140999999</v>
+      </c>
+      <c r="D122">
+        <v>22638.410156000002</v>
+      </c>
+      <c r="E122">
+        <v>24999.669922000001</v>
+      </c>
+      <c r="F122">
+        <v>24999.669922000001</v>
+      </c>
+      <c r="G122">
+        <v>7189200000</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>8.8947678181481749E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B123">
+        <v>25025.310547000001</v>
+      </c>
+      <c r="C123">
+        <v>26241.419922000001</v>
+      </c>
+      <c r="D123">
+        <v>24883.039063</v>
+      </c>
+      <c r="E123">
+        <v>25916</v>
+      </c>
+      <c r="F123">
+        <v>25916</v>
+      </c>
+      <c r="G123">
+        <v>5434540000</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="1"/>
+        <v>4.8595176180372457E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B124">
+        <v>26019.669922000001</v>
+      </c>
+      <c r="C124">
+        <v>26155.980468999998</v>
+      </c>
+      <c r="D124">
+        <v>25208</v>
+      </c>
+      <c r="E124">
+        <v>25928.679688</v>
+      </c>
+      <c r="F124">
+        <v>25928.679688</v>
+      </c>
+      <c r="G124">
+        <v>6734060000</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>5.2387500459698533E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B125">
+        <v>26075.099609000001</v>
+      </c>
+      <c r="C125">
+        <v>26695.960938</v>
+      </c>
+      <c r="D125">
+        <v>26062.589843999998</v>
+      </c>
+      <c r="E125">
+        <v>26592.910156000002</v>
+      </c>
+      <c r="F125">
+        <v>26592.910156000002</v>
+      </c>
+      <c r="G125">
+        <v>5854600000</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>2.3810506510422158E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B126">
+        <v>26639.060547000001</v>
+      </c>
+      <c r="C126">
+        <v>26689.390625</v>
+      </c>
+      <c r="D126">
+        <v>24809.509765999999</v>
+      </c>
+      <c r="E126">
+        <v>24815.039063</v>
+      </c>
+      <c r="F126">
+        <v>24815.039063</v>
+      </c>
+      <c r="G126">
+        <v>6358230000</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="1"/>
+        <v>1.8893338190812958E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B127">
+        <v>24830.160156000002</v>
+      </c>
+      <c r="C127">
+        <v>26907.369140999999</v>
+      </c>
+      <c r="D127">
+        <v>24680.570313</v>
+      </c>
+      <c r="E127">
+        <v>26599.960938</v>
+      </c>
+      <c r="F127">
+        <v>26599.960938</v>
+      </c>
+      <c r="G127">
+        <v>5544390000</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>8.3656688960101588E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B128">
+        <v>26805.859375</v>
+      </c>
+      <c r="C128">
+        <v>27398.679688</v>
+      </c>
+      <c r="D128">
+        <v>26616.210938</v>
+      </c>
+      <c r="E128">
+        <v>26864.269531000002</v>
+      </c>
+      <c r="F128">
+        <v>26864.269531000002</v>
+      </c>
+      <c r="G128">
+        <v>5205170000</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>2.2115325784066497E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B129">
+        <v>26879.859375</v>
+      </c>
+      <c r="C129">
+        <v>27175.589843999998</v>
+      </c>
+      <c r="D129">
+        <v>25339.599609000001</v>
+      </c>
+      <c r="E129">
+        <v>26403.279297000001</v>
+      </c>
+      <c r="F129">
+        <v>26403.279297000001</v>
+      </c>
+      <c r="G129">
+        <v>8170730000</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>1.1001935124520967E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B130">
+        <v>26198.259765999999</v>
+      </c>
+      <c r="C130">
+        <v>27306.730468999998</v>
+      </c>
+      <c r="D130">
+        <v>25978.220702999999</v>
+      </c>
+      <c r="E130">
+        <v>26916.830077999999</v>
+      </c>
+      <c r="F130">
+        <v>26916.830077999999</v>
+      </c>
+      <c r="G130">
+        <v>5045520000</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>4.2310852434502833E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B131">
+        <v>26962.539063</v>
+      </c>
+      <c r="C131">
+        <v>27204.359375</v>
+      </c>
+      <c r="D131">
+        <v>25743.460938</v>
+      </c>
+      <c r="E131">
+        <v>27046.230468999998</v>
+      </c>
+      <c r="F131">
+        <v>27046.230468999998</v>
+      </c>
+      <c r="G131">
+        <v>5658040000</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H135" si="2">C131/B131-1</f>
+        <v>8.9687514753327147E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B132">
+        <v>27142.949218999998</v>
+      </c>
+      <c r="C132">
+        <v>28174.970702999999</v>
+      </c>
+      <c r="D132">
+        <v>27142.949218999998</v>
+      </c>
+      <c r="E132">
+        <v>28051.410156000002</v>
+      </c>
+      <c r="F132">
+        <v>28051.410156000002</v>
+      </c>
+      <c r="G132">
+        <v>4925180000</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="2"/>
+        <v>3.8021715167104508E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B133">
+        <v>28109.740234000001</v>
+      </c>
+      <c r="C133">
         <v>28701.660156000002</v>
       </c>
-      <c r="D62">
-        <v>28608.980468999998</v>
-      </c>
-      <c r="E62">
-        <v>28645.259765999999</v>
-      </c>
-      <c r="F62">
-        <v>28645.259765999999</v>
-      </c>
-      <c r="G62">
-        <v>184932114</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="D133">
+        <v>27325.130859000001</v>
+      </c>
+      <c r="E133">
+        <v>28538.439452999999</v>
+      </c>
+      <c r="F133">
+        <v>28538.439452999999</v>
+      </c>
+      <c r="G133">
+        <v>5086880000</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>2.1057466809460079E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B134">
+        <v>28638.970702999999</v>
+      </c>
+      <c r="C134">
+        <v>28988.009765999999</v>
+      </c>
+      <c r="D134">
+        <v>28418.630859000001</v>
+      </c>
+      <c r="E134">
+        <v>28956.900390999999</v>
+      </c>
+      <c r="F134">
+        <v>28956.900390999999</v>
+      </c>
+      <c r="G134">
+        <v>1569880000</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="2"/>
+        <v>1.2187556131807442E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B135">
+        <v>28852</v>
+      </c>
+      <c r="C135">
+        <v>28988.009765999999</v>
+      </c>
+      <c r="D135">
+        <v>28844.310547000001</v>
+      </c>
+      <c r="E135">
+        <v>28956.900390999999</v>
+      </c>
+      <c r="F135">
+        <v>28956.900390999999</v>
+      </c>
+      <c r="G135">
+        <v>282850650</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="2"/>
+        <v>4.7140498405655595E-3</v>
       </c>
     </row>
   </sheetData>

--- a/src/module/dependent/^DJI.xlsx
+++ b/src/module/dependent/^DJI.xlsx
@@ -2,24 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giho9\Documents\GitHub\doozy\src\module\dependent\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="14436"/>
+    <workbookView xWindow="8676" yWindow="1992" windowWidth="12156" windowHeight="11388"/>
   </bookViews>
   <sheets>
-    <sheet name="^DJI" sheetId="1" r:id="rId1"/>
+    <sheet name="^DJI-Monthly-Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+  <si>
+    <t>DATE</t>
+  </si>
   <si>
     <t>Open</t>
   </si>
@@ -39,19 +43,142 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>HM3UP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>HM_Rate</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>HM4UP</t>
+  </si>
+  <si>
+    <t>HM8UP</t>
+  </si>
+  <si>
+    <t>HM10UP</t>
+  </si>
+  <si>
+    <t>HL_Rate</t>
+  </si>
+  <si>
+    <t>LM4DN</t>
+  </si>
+  <si>
+    <t>LM8DN</t>
+  </si>
+  <si>
+    <t>LM10DN</t>
+  </si>
+  <si>
+    <t>지표명</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>지표약칭</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>전망</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>지표소스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표일</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표주기</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 업데이트</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 데이터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>매월 1일</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOW JONES MONTHLY</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>^DJI</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/quote/%5EDJI?p=^DJI&amp;.tsrc=fin-srch</t>
+  </si>
+  <si>
+    <t>시가</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정종가</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래량</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가증가</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM4%↑</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM8%↑</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM10%↑</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가감소</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM4%↓</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM8%↓</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM10%↓</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -205,9 +332,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -509,7 +683,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,7 +747,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,7 +771,7 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,7 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,19 +807,40 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -688,6 +883,7 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="42" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -719,7 +915,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -731,7 +927,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -748,9 +944,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -778,14 +974,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -813,6 +1026,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -965,3664 +1195,3504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B2">
-        <v>8772.25</v>
+        <v>8000.6201170000004</v>
       </c>
       <c r="C2">
-        <v>9088.0595699999994</v>
+        <v>8315.0703130000002</v>
       </c>
       <c r="D2">
-        <v>7909.0297849999997</v>
+        <v>7033.6201170000004</v>
       </c>
       <c r="E2">
-        <v>8000.8598629999997</v>
+        <v>7062.9301759999998</v>
       </c>
       <c r="F2">
-        <v>8000.8598629999997</v>
+        <v>7062.9301759999998</v>
       </c>
       <c r="G2">
-        <v>6261980000</v>
+        <v>7134360000</v>
       </c>
       <c r="H2">
-        <f>C2/B2-1</f>
-        <v>3.6000976944341456E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B3">
-        <v>8000.6201170000004</v>
+        <v>7056.4799800000001</v>
       </c>
       <c r="C3">
-        <v>8315.0703130000002</v>
+        <v>7931.330078</v>
       </c>
       <c r="D3">
-        <v>7033.6201170000004</v>
+        <v>6469.9501950000003</v>
       </c>
       <c r="E3">
-        <v>7062.9301759999998</v>
+        <v>7608.919922</v>
       </c>
       <c r="F3">
-        <v>7062.9301759999998</v>
+        <v>7608.919922</v>
       </c>
       <c r="G3">
-        <v>7134360000</v>
+        <v>10561060000</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">C3/B3-1</f>
-        <v>3.9303227925026052E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B4">
-        <v>7056.4799800000001</v>
+        <v>7606.1298829999996</v>
       </c>
       <c r="C4">
-        <v>7931.330078</v>
+        <v>8307.5097659999992</v>
       </c>
       <c r="D4">
-        <v>6469.9501950000003</v>
+        <v>7483.8701170000004</v>
       </c>
       <c r="E4">
-        <v>7608.919922</v>
+        <v>8168.1201170000004</v>
       </c>
       <c r="F4">
-        <v>7608.919922</v>
+        <v>8168.1201170000004</v>
       </c>
       <c r="G4">
-        <v>10561060000</v>
+        <v>7795900000</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.12397825834971044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B5">
-        <v>7606.1298829999996</v>
+        <v>8167.4101559999999</v>
       </c>
       <c r="C5">
-        <v>8307.5097659999992</v>
+        <v>8591.9296880000002</v>
       </c>
       <c r="D5">
-        <v>7483.8701170000004</v>
+        <v>8099.3100590000004</v>
       </c>
       <c r="E5">
-        <v>8168.1201170000004</v>
+        <v>8500.3300780000009</v>
       </c>
       <c r="F5">
-        <v>8168.1201170000004</v>
+        <v>8500.3300780000009</v>
       </c>
       <c r="G5">
-        <v>7795900000</v>
+        <v>6734390000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>9.2212451508041138E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B6">
-        <v>8167.4101559999999</v>
+        <v>8501.5302730000003</v>
       </c>
       <c r="C6">
-        <v>8591.9296880000002</v>
+        <v>8877.9296880000002</v>
       </c>
       <c r="D6">
-        <v>8099.3100590000004</v>
+        <v>8259.4296880000002</v>
       </c>
       <c r="E6">
-        <v>8500.3300780000009</v>
+        <v>8447</v>
       </c>
       <c r="F6">
-        <v>8500.3300780000009</v>
+        <v>8447</v>
       </c>
       <c r="G6">
-        <v>6734390000</v>
+        <v>5524080000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>5.1977251526683421E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B7">
-        <v>8501.5302730000003</v>
+        <v>8447.5302730000003</v>
       </c>
       <c r="C7">
-        <v>8877.9296880000002</v>
+        <v>9246.4296880000002</v>
       </c>
       <c r="D7">
-        <v>8259.4296880000002</v>
+        <v>8087.1899409999996</v>
       </c>
       <c r="E7">
-        <v>8447</v>
+        <v>9171.6103519999997</v>
       </c>
       <c r="F7">
-        <v>8447</v>
+        <v>9171.6103519999997</v>
       </c>
       <c r="G7">
-        <v>5524080000</v>
+        <v>4902340000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>4.4274313319262903E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B8">
-        <v>8447.5302730000003</v>
+        <v>9173.6503909999992</v>
       </c>
       <c r="C8">
-        <v>9246.4296880000002</v>
+        <v>9630.2001949999994</v>
       </c>
       <c r="D8">
-        <v>8087.1899409999996</v>
+        <v>9116.5195309999999</v>
       </c>
       <c r="E8">
-        <v>9171.6103519999997</v>
+        <v>9496.2802730000003</v>
       </c>
       <c r="F8">
-        <v>9171.6103519999997</v>
+        <v>9496.2802730000003</v>
       </c>
       <c r="G8">
-        <v>4902340000</v>
+        <v>4042210000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>9.4571950520667913E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B9">
-        <v>9173.6503909999992</v>
+        <v>9492.3203130000002</v>
       </c>
       <c r="C9">
-        <v>9630.2001949999994</v>
+        <v>9917.9902340000008</v>
       </c>
       <c r="D9">
-        <v>9116.5195309999999</v>
+        <v>9252.9296880000002</v>
       </c>
       <c r="E9">
-        <v>9496.2802730000003</v>
+        <v>9712.2802730000003</v>
       </c>
       <c r="F9">
-        <v>9496.2802730000003</v>
+        <v>9712.2802730000003</v>
       </c>
       <c r="G9">
-        <v>4042210000</v>
+        <v>4478480000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>4.9767517241327219E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B10">
-        <v>9492.3203130000002</v>
+        <v>9711.5996090000008</v>
       </c>
       <c r="C10">
-        <v>9917.9902340000008</v>
+        <v>10119.469730000001</v>
       </c>
       <c r="D10">
-        <v>9252.9296880000002</v>
+        <v>9430.0800780000009</v>
       </c>
       <c r="E10">
-        <v>9712.2802730000003</v>
+        <v>9712.7304690000001</v>
       </c>
       <c r="F10">
-        <v>9712.2802730000003</v>
+        <v>9712.7304690000001</v>
       </c>
       <c r="G10">
-        <v>4478480000</v>
+        <v>5151150000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>4.4843611147111551E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B11">
-        <v>9711.5996090000008</v>
+        <v>9712.1298829999996</v>
       </c>
       <c r="C11">
-        <v>10119.469727</v>
+        <v>10495.610350000001</v>
       </c>
       <c r="D11">
-        <v>9430.0800780000009</v>
+        <v>9678.9501949999994</v>
       </c>
       <c r="E11">
-        <v>9712.7304690000001</v>
+        <v>10344.839840000001</v>
       </c>
       <c r="F11">
-        <v>9712.7304690000001</v>
+        <v>10344.839840000001</v>
       </c>
       <c r="G11">
-        <v>5151150000</v>
+        <v>3813550000</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>4.1998242763428451E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B12">
-        <v>9712.1298829999996</v>
+        <v>10343.820309999999</v>
       </c>
       <c r="C12">
-        <v>10495.610352</v>
+        <v>10580.33008</v>
       </c>
       <c r="D12">
-        <v>9678.9501949999994</v>
+        <v>10235.62988</v>
       </c>
       <c r="E12">
-        <v>10344.839844</v>
+        <v>10428.04981</v>
       </c>
       <c r="F12">
-        <v>10344.839844</v>
+        <v>10428.04981</v>
       </c>
       <c r="G12">
-        <v>3813550000</v>
+        <v>4174040000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>8.0670303881684724E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B13">
-        <v>10343.820313</v>
+        <v>10430.690430000001</v>
       </c>
       <c r="C13">
-        <v>10580.330078000001</v>
+        <v>10729.889649999999</v>
       </c>
       <c r="D13">
-        <v>10235.629883</v>
+        <v>10043.75</v>
       </c>
       <c r="E13">
-        <v>10428.049805000001</v>
+        <v>10067.33008</v>
       </c>
       <c r="F13">
-        <v>10428.049805000001</v>
+        <v>10067.33008</v>
       </c>
       <c r="G13">
-        <v>4174040000</v>
+        <v>4424700000</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>2.2864836959972878E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B14">
-        <v>10430.690430000001</v>
+        <v>10068.990229999999</v>
       </c>
       <c r="C14">
-        <v>10729.889648</v>
+        <v>10438.54981</v>
       </c>
       <c r="D14">
-        <v>10043.75</v>
+        <v>9835.0898440000001</v>
       </c>
       <c r="E14">
-        <v>10067.330078000001</v>
+        <v>10325.259770000001</v>
       </c>
       <c r="F14">
-        <v>10067.330078000001</v>
+        <v>10325.259770000001</v>
       </c>
       <c r="G14">
-        <v>4424700000</v>
+        <v>4279660000</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>2.8684507512509949E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B15">
-        <v>10068.990234000001</v>
+        <v>10326.099609999999</v>
       </c>
       <c r="C15">
-        <v>10438.549805000001</v>
+        <v>10955.48047</v>
       </c>
       <c r="D15">
-        <v>9835.0898440000001</v>
+        <v>10326.099609999999</v>
       </c>
       <c r="E15">
-        <v>10325.259765999999</v>
+        <v>10856.62988</v>
       </c>
       <c r="F15">
-        <v>10325.259765999999</v>
+        <v>10856.62988</v>
       </c>
       <c r="G15">
-        <v>4279660000</v>
+        <v>4388530000</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>3.6702744010229216E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B16">
-        <v>10326.099609000001</v>
+        <v>10857.309569999999</v>
       </c>
       <c r="C16">
-        <v>10955.480469</v>
+        <v>11258.009770000001</v>
       </c>
       <c r="D16">
-        <v>10326.099609000001</v>
+        <v>10844.089840000001</v>
       </c>
       <c r="E16">
-        <v>10856.629883</v>
+        <v>11008.610350000001</v>
       </c>
       <c r="F16">
-        <v>10856.629883</v>
+        <v>11008.610350000001</v>
       </c>
       <c r="G16">
-        <v>4388530000</v>
+        <v>4237550000</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>6.0950492812547052E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B17">
-        <v>10857.309569999999</v>
+        <v>11009.599609999999</v>
       </c>
       <c r="C17">
-        <v>11258.009765999999</v>
+        <v>11177.66992</v>
       </c>
       <c r="D17">
-        <v>10844.089844</v>
+        <v>9774.4804690000001</v>
       </c>
       <c r="E17">
-        <v>11008.610352</v>
+        <v>10136.62988</v>
       </c>
       <c r="F17">
-        <v>11008.610352</v>
+        <v>10136.62988</v>
       </c>
       <c r="G17">
-        <v>4237550000</v>
+        <v>5605690000</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>3.690603030304862E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B18">
-        <v>11009.599609000001</v>
+        <v>10133.940430000001</v>
       </c>
       <c r="C18">
-        <v>11177.669921999999</v>
+        <v>10594.160159999999</v>
       </c>
       <c r="D18">
-        <v>9774.4804690000001</v>
+        <v>9753.8398440000001</v>
       </c>
       <c r="E18">
-        <v>10136.629883</v>
+        <v>9774.0195309999999</v>
       </c>
       <c r="F18">
-        <v>10136.629883</v>
+        <v>9774.0195309999999</v>
       </c>
       <c r="G18">
-        <v>5605690000</v>
+        <v>4941680000</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1.5265797028858996E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B19">
-        <v>10133.940430000001</v>
+        <v>9773.2695309999999</v>
       </c>
       <c r="C19">
-        <v>10594.160156</v>
+        <v>10584.990229999999</v>
       </c>
       <c r="D19">
-        <v>9753.8398440000001</v>
+        <v>9614.3203130000002</v>
       </c>
       <c r="E19">
-        <v>9774.0195309999999</v>
+        <v>10465.940430000001</v>
       </c>
       <c r="F19">
-        <v>9774.0195309999999</v>
+        <v>10465.940430000001</v>
       </c>
       <c r="G19">
-        <v>4941680000</v>
+        <v>4243320000</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>4.5413699555366227E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B20">
-        <v>9773.2695309999999</v>
+        <v>10468.820309999999</v>
       </c>
       <c r="C20">
-        <v>10584.990234000001</v>
+        <v>10719.940430000001</v>
       </c>
       <c r="D20">
-        <v>9614.3203130000002</v>
+        <v>9936.6201170000004</v>
       </c>
       <c r="E20">
-        <v>10465.940430000001</v>
+        <v>10014.719730000001</v>
       </c>
       <c r="F20">
-        <v>10465.940430000001</v>
+        <v>10014.719730000001</v>
       </c>
       <c r="G20">
-        <v>4243320000</v>
+        <v>4117550000</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
-        <v>8.3055184390985026E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B21">
-        <v>10468.820313</v>
+        <v>10016.009770000001</v>
       </c>
       <c r="C21">
-        <v>10719.940430000001</v>
+        <v>10948.87988</v>
       </c>
       <c r="D21">
-        <v>9936.6201170000004</v>
+        <v>10016.009770000001</v>
       </c>
       <c r="E21">
-        <v>10014.719727</v>
+        <v>10788.04981</v>
       </c>
       <c r="F21">
-        <v>10014.719727</v>
+        <v>10788.04981</v>
       </c>
       <c r="G21">
-        <v>4117550000</v>
+        <v>3764970000</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>2.3987432154906951E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B22">
-        <v>10016.009765999999</v>
+        <v>10789.719730000001</v>
       </c>
       <c r="C22">
-        <v>10948.879883</v>
+        <v>11247.599609999999</v>
       </c>
       <c r="D22">
-        <v>10016.009765999999</v>
+        <v>10711.12012</v>
       </c>
       <c r="E22">
-        <v>10788.049805000001</v>
+        <v>11118.490229999999</v>
       </c>
       <c r="F22">
-        <v>10788.049805000001</v>
+        <v>11118.490229999999</v>
       </c>
       <c r="G22">
-        <v>3764970000</v>
+        <v>3787250000</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
-        <v>9.3137900101364579E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B23">
-        <v>10789.719727</v>
+        <v>11120.29981</v>
       </c>
       <c r="C23">
-        <v>11247.599609000001</v>
+        <v>11451.530269999999</v>
       </c>
       <c r="D23">
-        <v>10711.120117</v>
+        <v>10929.280269999999</v>
       </c>
       <c r="E23">
-        <v>11118.490234000001</v>
+        <v>11006.01953</v>
       </c>
       <c r="F23">
-        <v>11118.490234000001</v>
+        <v>11006.01953</v>
       </c>
       <c r="G23">
-        <v>3787250000</v>
+        <v>3808130000</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>4.2436679875401229E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B24">
-        <v>11120.299805000001</v>
+        <v>11007.23047</v>
       </c>
       <c r="C24">
-        <v>11451.530273</v>
+        <v>11625</v>
       </c>
       <c r="D24">
-        <v>10929.280273</v>
+        <v>11007.23047</v>
       </c>
       <c r="E24">
-        <v>11006.019531</v>
+        <v>11577.509770000001</v>
       </c>
       <c r="F24">
-        <v>11006.019531</v>
+        <v>11577.509770000001</v>
       </c>
       <c r="G24">
-        <v>3808130000</v>
+        <v>3252900000</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
-        <v>2.9786109530164806E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B25">
-        <v>11007.230469</v>
+        <v>11577.429690000001</v>
       </c>
       <c r="C25">
-        <v>11625</v>
+        <v>12020.51953</v>
       </c>
       <c r="D25">
-        <v>11007.230469</v>
+        <v>11573.87012</v>
       </c>
       <c r="E25">
-        <v>11577.509765999999</v>
+        <v>11891.929690000001</v>
       </c>
       <c r="F25">
-        <v>11577.509765999999</v>
+        <v>11891.929690000001</v>
       </c>
       <c r="G25">
-        <v>3252900000</v>
+        <v>3681720000</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
-        <v>5.6123975303310258E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B26">
-        <v>11577.429688</v>
+        <v>11892.5</v>
       </c>
       <c r="C26">
-        <v>12020.519531</v>
+        <v>12391.29004</v>
       </c>
       <c r="D26">
-        <v>11573.870117</v>
+        <v>11892.5</v>
       </c>
       <c r="E26">
-        <v>11891.929688</v>
+        <v>12226.339840000001</v>
       </c>
       <c r="F26">
-        <v>11891.929688</v>
+        <v>12226.339840000001</v>
       </c>
       <c r="G26">
-        <v>3681720000</v>
+        <v>3220480000</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>3.8271866462662452E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B27">
-        <v>11892.5</v>
+        <v>12226.490229999999</v>
       </c>
       <c r="C27">
-        <v>12391.290039</v>
+        <v>12383.45996</v>
       </c>
       <c r="D27">
-        <v>11892.5</v>
+        <v>11555.48047</v>
       </c>
       <c r="E27">
-        <v>12226.339844</v>
+        <v>12319.73047</v>
       </c>
       <c r="F27">
-        <v>12226.339844</v>
+        <v>12319.73047</v>
       </c>
       <c r="G27">
-        <v>3220480000</v>
+        <v>3851830000</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
-        <v>4.1941563085978517E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B28">
-        <v>12226.490234000001</v>
+        <v>12321.01953</v>
       </c>
       <c r="C28">
-        <v>12383.459961</v>
+        <v>12832.83008</v>
       </c>
       <c r="D28">
-        <v>11555.480469</v>
+        <v>12093.889649999999</v>
       </c>
       <c r="E28">
-        <v>12319.730469</v>
+        <v>12810.54004</v>
       </c>
       <c r="F28">
-        <v>12319.730469</v>
+        <v>12810.54004</v>
       </c>
       <c r="G28">
-        <v>3851830000</v>
+        <v>3321090000</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>1.2838494449003202E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B29">
-        <v>12321.019531</v>
+        <v>12810.160159999999</v>
       </c>
       <c r="C29">
-        <v>12832.830078000001</v>
+        <v>12876</v>
       </c>
       <c r="D29">
-        <v>12093.889648</v>
+        <v>12309.51953</v>
       </c>
       <c r="E29">
-        <v>12810.540039</v>
+        <v>12569.79004</v>
       </c>
       <c r="F29">
-        <v>12810.540039</v>
+        <v>12569.79004</v>
       </c>
       <c r="G29">
-        <v>3321090000</v>
+        <v>3578020000</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
-        <v>4.1539626303835675E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B30">
-        <v>12810.160156</v>
+        <v>12569.410159999999</v>
       </c>
       <c r="C30">
-        <v>12876</v>
+        <v>12569.490229999999</v>
       </c>
       <c r="D30">
-        <v>12309.519531</v>
+        <v>11862.530269999999</v>
       </c>
       <c r="E30">
-        <v>12569.790039</v>
+        <v>12414.339840000001</v>
       </c>
       <c r="F30">
-        <v>12569.790039</v>
+        <v>12414.339840000001</v>
       </c>
       <c r="G30">
-        <v>3578020000</v>
+        <v>3876460000</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
-        <v>5.1396581462068713E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B31">
-        <v>12569.410156</v>
+        <v>12414.339840000001</v>
       </c>
       <c r="C31">
-        <v>12569.490234000001</v>
+        <v>12753.889649999999</v>
       </c>
       <c r="D31">
-        <v>11862.530273</v>
+        <v>12083.450199999999</v>
       </c>
       <c r="E31">
-        <v>12414.339844</v>
+        <v>12143.240229999999</v>
       </c>
       <c r="F31">
-        <v>12414.339844</v>
+        <v>12143.240229999999</v>
       </c>
       <c r="G31">
-        <v>3876460000</v>
+        <v>3092480000</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
-        <v>6.3708637880743879E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B32">
-        <v>12414.339844</v>
+        <v>12144.219730000001</v>
       </c>
       <c r="C32">
-        <v>12753.889648</v>
+        <v>12282.41992</v>
       </c>
       <c r="D32">
-        <v>12083.450194999999</v>
+        <v>10604.070309999999</v>
       </c>
       <c r="E32">
-        <v>12143.240234000001</v>
+        <v>11613.530269999999</v>
       </c>
       <c r="F32">
-        <v>12143.240234000001</v>
+        <v>11613.530269999999</v>
       </c>
       <c r="G32">
-        <v>3092480000</v>
+        <v>6203230000</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
-        <v>2.7351418461780685E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B33">
-        <v>12144.219727</v>
+        <v>11613.29981</v>
       </c>
       <c r="C33">
-        <v>12282.419921999999</v>
+        <v>11716.839840000001</v>
       </c>
       <c r="D33">
-        <v>10604.070313</v>
+        <v>10597.139649999999</v>
       </c>
       <c r="E33">
-        <v>11613.530273</v>
+        <v>10913.37988</v>
       </c>
       <c r="F33">
-        <v>11613.530273</v>
+        <v>10913.37988</v>
       </c>
       <c r="G33">
-        <v>6203230000</v>
+        <v>4396520000</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1.1379915557089504E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B34">
-        <v>11613.299805000001</v>
+        <v>10912.099609999999</v>
       </c>
       <c r="C34">
-        <v>11716.839844</v>
+        <v>12284.309569999999</v>
       </c>
       <c r="D34">
-        <v>10597.139648</v>
+        <v>10404.490229999999</v>
       </c>
       <c r="E34">
-        <v>10913.379883</v>
+        <v>11955.009770000001</v>
       </c>
       <c r="F34">
-        <v>10913.379883</v>
+        <v>11955.009770000001</v>
       </c>
       <c r="G34">
-        <v>4396520000</v>
+        <v>3907730000</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
-        <v>8.9156433346722075E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B35">
-        <v>10912.099609000001</v>
+        <v>11951.530269999999</v>
       </c>
       <c r="C35">
-        <v>12284.309569999999</v>
+        <v>12187.509770000001</v>
       </c>
       <c r="D35">
-        <v>10404.490234000001</v>
+        <v>11231.429690000001</v>
       </c>
       <c r="E35">
-        <v>11955.009765999999</v>
+        <v>12045.679690000001</v>
       </c>
       <c r="F35">
-        <v>11955.009765999999</v>
+        <v>12045.679690000001</v>
       </c>
       <c r="G35">
-        <v>3907730000</v>
+        <v>3263110000</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0.12575123121752285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B36">
-        <v>11951.530273</v>
+        <v>12046.20996</v>
       </c>
       <c r="C36">
-        <v>12187.509765999999</v>
+        <v>12328.469730000001</v>
       </c>
       <c r="D36">
-        <v>11231.429688</v>
+        <v>11735.190430000001</v>
       </c>
       <c r="E36">
-        <v>12045.679688</v>
+        <v>12217.559569999999</v>
       </c>
       <c r="F36">
-        <v>12045.679688</v>
+        <v>12217.559569999999</v>
       </c>
       <c r="G36">
-        <v>3263110000</v>
+        <v>3071480000</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
-        <v>1.9744709473154654E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B37">
-        <v>12046.209961</v>
+        <v>12221.190430000001</v>
       </c>
       <c r="C37">
-        <v>12328.469727</v>
+        <v>12841.950199999999</v>
       </c>
       <c r="D37">
-        <v>11735.190430000001</v>
+        <v>12221.190430000001</v>
       </c>
       <c r="E37">
-        <v>12217.559569999999</v>
+        <v>12632.910159999999</v>
       </c>
       <c r="F37">
-        <v>12217.559569999999</v>
+        <v>12632.910159999999</v>
       </c>
       <c r="G37">
-        <v>3071480000</v>
+        <v>2981080000</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
-        <v>2.3431416762103918E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B38">
-        <v>12221.190430000001</v>
+        <v>12632.759770000001</v>
       </c>
       <c r="C38">
-        <v>12841.950194999999</v>
+        <v>13055.75</v>
       </c>
       <c r="D38">
-        <v>12221.190430000001</v>
+        <v>12632.759770000001</v>
       </c>
       <c r="E38">
-        <v>12632.910156</v>
+        <v>12952.070309999999</v>
       </c>
       <c r="F38">
-        <v>12632.910156</v>
+        <v>12952.070309999999</v>
       </c>
       <c r="G38">
-        <v>2981080000</v>
+        <v>2712170000</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
-        <v>5.0793723291978843E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B39">
-        <v>12632.759765999999</v>
+        <v>12952.29004</v>
       </c>
       <c r="C39">
-        <v>13055.75</v>
+        <v>13289.08008</v>
       </c>
       <c r="D39">
-        <v>12632.759765999999</v>
+        <v>12734.860350000001</v>
       </c>
       <c r="E39">
-        <v>12952.070313</v>
+        <v>13212.04004</v>
       </c>
       <c r="F39">
-        <v>12952.070313</v>
+        <v>13212.04004</v>
       </c>
       <c r="G39">
-        <v>2712170000</v>
+        <v>3203390000</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
-        <v>3.3483596762319712E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B40">
-        <v>12952.290039</v>
+        <v>13211.360350000001</v>
       </c>
       <c r="C40">
-        <v>13289.080078000001</v>
+        <v>13297.110350000001</v>
       </c>
       <c r="D40">
-        <v>12734.860352</v>
+        <v>12710.559569999999</v>
       </c>
       <c r="E40">
-        <v>13212.040039</v>
+        <v>13213.62988</v>
       </c>
       <c r="F40">
-        <v>13212.040039</v>
+        <v>13213.62988</v>
       </c>
       <c r="G40">
-        <v>3203390000</v>
+        <v>2574900000</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
-        <v>2.6002354640446645E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B41">
-        <v>13211.360352</v>
+        <v>13214.160159999999</v>
       </c>
       <c r="C41">
-        <v>13297.110352</v>
+        <v>13338.660159999999</v>
       </c>
       <c r="D41">
-        <v>12710.559569999999</v>
+        <v>12311.559569999999</v>
       </c>
       <c r="E41">
-        <v>13213.629883</v>
+        <v>12393.450199999999</v>
       </c>
       <c r="F41">
-        <v>13213.629883</v>
+        <v>12393.450199999999</v>
       </c>
       <c r="G41">
-        <v>2574900000</v>
+        <v>3050000000</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
-        <v>6.4906260759907131E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B42">
-        <v>13214.160156</v>
+        <v>12391.559569999999</v>
       </c>
       <c r="C42">
-        <v>13338.660156</v>
+        <v>12898.940430000001</v>
       </c>
       <c r="D42">
-        <v>12311.559569999999</v>
+        <v>12035.089840000001</v>
       </c>
       <c r="E42">
-        <v>12393.450194999999</v>
+        <v>12880.089840000001</v>
       </c>
       <c r="F42">
-        <v>12393.450194999999</v>
+        <v>12880.089840000001</v>
       </c>
       <c r="G42">
-        <v>3050000000</v>
+        <v>2923670000</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
-        <v>9.4217111439707235E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B43">
-        <v>12391.559569999999</v>
+        <v>12879.70996</v>
       </c>
       <c r="C43">
-        <v>12898.940430000001</v>
+        <v>13128.639649999999</v>
       </c>
       <c r="D43">
-        <v>12035.089844</v>
+        <v>12492.25</v>
       </c>
       <c r="E43">
-        <v>12880.089844</v>
+        <v>13008.679690000001</v>
       </c>
       <c r="F43">
-        <v>12880.089844</v>
+        <v>13008.679690000001</v>
       </c>
       <c r="G43">
-        <v>2923670000</v>
+        <v>2578110000</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
-        <v>4.0945682190672184E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B44">
-        <v>12879.709961</v>
+        <v>13007.469730000001</v>
       </c>
       <c r="C44">
-        <v>13128.639648</v>
+        <v>13330.759770000001</v>
       </c>
       <c r="D44">
-        <v>12492.25</v>
+        <v>12778.900390000001</v>
       </c>
       <c r="E44">
-        <v>13008.679688</v>
+        <v>13090.839840000001</v>
       </c>
       <c r="F44">
-        <v>13008.679688</v>
+        <v>13090.839840000001</v>
       </c>
       <c r="G44">
-        <v>2578110000</v>
+        <v>2267280000</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
-        <v>1.9327274275101169E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B45">
-        <v>13007.469727</v>
+        <v>13092.150390000001</v>
       </c>
       <c r="C45">
-        <v>13330.759765999999</v>
+        <v>13653.240229999999</v>
       </c>
       <c r="D45">
-        <v>12778.900390999999</v>
+        <v>12977.089840000001</v>
       </c>
       <c r="E45">
-        <v>13090.839844</v>
+        <v>13437.12988</v>
       </c>
       <c r="F45">
-        <v>13090.839844</v>
+        <v>13437.12988</v>
       </c>
       <c r="G45">
-        <v>2267280000</v>
+        <v>2701270000</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
-        <v>2.4854183464208868E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B46">
-        <v>13092.150390999999</v>
+        <v>13437.660159999999</v>
       </c>
       <c r="C46">
-        <v>13653.240234000001</v>
+        <v>13661.87012</v>
       </c>
       <c r="D46">
-        <v>12977.089844</v>
+        <v>13017.37012</v>
       </c>
       <c r="E46">
-        <v>13437.129883</v>
+        <v>13096.45996</v>
       </c>
       <c r="F46">
-        <v>13437.129883</v>
+        <v>13096.45996</v>
       </c>
       <c r="G46">
-        <v>2701270000</v>
+        <v>2472600000</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
-        <v>4.2856965910330169E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B47">
-        <v>13437.660156</v>
+        <v>13099.190430000001</v>
       </c>
       <c r="C47">
-        <v>13661.870117</v>
+        <v>13290.75</v>
       </c>
       <c r="D47">
-        <v>13017.370117</v>
+        <v>12471.490229999999</v>
       </c>
       <c r="E47">
-        <v>13096.459961</v>
+        <v>13025.58008</v>
       </c>
       <c r="F47">
-        <v>13096.459961</v>
+        <v>13025.58008</v>
       </c>
       <c r="G47">
-        <v>2472600000</v>
+        <v>2683930000</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
-        <v>1.6685193582596236E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B48">
-        <v>13099.190430000001</v>
+        <v>13027.73047</v>
       </c>
       <c r="C48">
-        <v>13290.75</v>
+        <v>13365.860350000001</v>
       </c>
       <c r="D48">
-        <v>12471.490234000001</v>
+        <v>12883.889649999999</v>
       </c>
       <c r="E48">
-        <v>13025.580078000001</v>
+        <v>13104.139649999999</v>
       </c>
       <c r="F48">
-        <v>13025.580078000001</v>
+        <v>13104.139649999999</v>
       </c>
       <c r="G48">
-        <v>2683930000</v>
+        <v>2666750000</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
-        <v>1.46237716768578E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B49">
-        <v>13027.730469</v>
+        <v>13104.29981</v>
       </c>
       <c r="C49">
-        <v>13365.860352</v>
+        <v>13969.990229999999</v>
       </c>
       <c r="D49">
-        <v>12883.889648</v>
+        <v>13104.29981</v>
       </c>
       <c r="E49">
-        <v>13104.139648</v>
+        <v>13860.58008</v>
       </c>
       <c r="F49">
-        <v>13104.139648</v>
+        <v>13860.58008</v>
       </c>
       <c r="G49">
-        <v>2666750000</v>
+        <v>2786680000</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
-        <v>2.5954626848060158E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B50">
-        <v>13104.299805000001</v>
+        <v>13860.58008</v>
       </c>
       <c r="C50">
-        <v>13969.990234000001</v>
+        <v>14149.150390000001</v>
       </c>
       <c r="D50">
-        <v>13104.299805000001</v>
+        <v>13784.009770000001</v>
       </c>
       <c r="E50">
-        <v>13860.580078000001</v>
+        <v>14054.490229999999</v>
       </c>
       <c r="F50">
-        <v>13860.580078000001</v>
+        <v>14054.490229999999</v>
       </c>
       <c r="G50">
-        <v>2786680000</v>
+        <v>2487580000</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
-        <v>6.6061555510939396E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B51">
-        <v>13860.580078000001</v>
+        <v>14054.490229999999</v>
       </c>
       <c r="C51">
-        <v>14149.150390999999</v>
+        <v>14585.099609999999</v>
       </c>
       <c r="D51">
-        <v>13784.009765999999</v>
+        <v>13937.599609999999</v>
       </c>
       <c r="E51">
-        <v>14054.490234000001</v>
+        <v>14578.54004</v>
       </c>
       <c r="F51">
-        <v>14054.490234000001</v>
+        <v>14578.54004</v>
       </c>
       <c r="G51">
-        <v>2487580000</v>
+        <v>2546320000</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
-        <v>2.0819497551767485E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B52">
-        <v>14054.490234000001</v>
+        <v>14578.54004</v>
       </c>
       <c r="C52">
-        <v>14585.099609000001</v>
+        <v>14887.509770000001</v>
       </c>
       <c r="D52">
-        <v>13937.599609000001</v>
+        <v>14434.429690000001</v>
       </c>
       <c r="E52">
-        <v>14578.540039</v>
+        <v>14839.79981</v>
       </c>
       <c r="F52">
-        <v>14578.540039</v>
+        <v>14839.79981</v>
       </c>
       <c r="G52">
-        <v>2546320000</v>
+        <v>2920230000</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
-        <v>3.7753726116396047E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B53">
-        <v>14578.540039</v>
+        <v>14839.79981</v>
       </c>
       <c r="C53">
-        <v>14887.509765999999</v>
+        <v>15542.400390000001</v>
       </c>
       <c r="D53">
-        <v>14434.429688</v>
+        <v>14687.04981</v>
       </c>
       <c r="E53">
-        <v>14839.799805000001</v>
+        <v>15115.570309999999</v>
       </c>
       <c r="F53">
-        <v>14839.799805000001</v>
+        <v>15115.570309999999</v>
       </c>
       <c r="G53">
-        <v>2920230000</v>
+        <v>2771510000</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
-        <v>2.1193461497067245E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B54">
-        <v>14839.799805000001</v>
+        <v>15123.54981</v>
       </c>
       <c r="C54">
-        <v>15542.400390999999</v>
+        <v>15340.089840000001</v>
       </c>
       <c r="D54">
-        <v>14687.049805000001</v>
+        <v>14551.26953</v>
       </c>
       <c r="E54">
-        <v>15115.570313</v>
+        <v>14909.599609999999</v>
       </c>
       <c r="F54">
-        <v>15115.570313</v>
+        <v>14909.599609999999</v>
       </c>
       <c r="G54">
-        <v>2771510000</v>
+        <v>2929040000</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
-        <v>4.7345691669187451E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B55">
-        <v>15123.549805000001</v>
+        <v>14911.599609999999</v>
       </c>
       <c r="C55">
-        <v>15340.089844</v>
+        <v>15634.320309999999</v>
       </c>
       <c r="D55">
-        <v>14551.269531</v>
+        <v>14858.929690000001</v>
       </c>
       <c r="E55">
-        <v>14909.599609000001</v>
+        <v>15499.54004</v>
       </c>
       <c r="F55">
-        <v>14909.599609000001</v>
+        <v>15499.54004</v>
       </c>
       <c r="G55">
-        <v>2929040000</v>
+        <v>2623130000</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
-        <v>1.43180696193701E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B56">
-        <v>14911.599609000001</v>
+        <v>15503.849609999999</v>
       </c>
       <c r="C56">
-        <v>15634.320313</v>
+        <v>15658.429690000001</v>
       </c>
       <c r="D56">
-        <v>14858.929688</v>
+        <v>14760.410159999999</v>
       </c>
       <c r="E56">
-        <v>15499.540039</v>
+        <v>14810.309569999999</v>
       </c>
       <c r="F56">
-        <v>15499.540039</v>
+        <v>14810.309569999999</v>
       </c>
       <c r="G56">
-        <v>2623130000</v>
+        <v>2327660000</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
-        <v>4.8467013798023206E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B57">
-        <v>15503.849609000001</v>
+        <v>14801.54981</v>
       </c>
       <c r="C57">
-        <v>15658.429688</v>
+        <v>15709.58008</v>
       </c>
       <c r="D57">
-        <v>14760.410156</v>
+        <v>14777.48047</v>
       </c>
       <c r="E57">
-        <v>14810.309569999999</v>
+        <v>15129.66992</v>
       </c>
       <c r="F57">
-        <v>14810.309569999999</v>
+        <v>15129.66992</v>
       </c>
       <c r="G57">
-        <v>2327660000</v>
+        <v>2371540000</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
-        <v>9.9704320474229835E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B58">
-        <v>14801.549805000001</v>
+        <v>15132.490229999999</v>
       </c>
       <c r="C58">
-        <v>15709.580078000001</v>
+        <v>15721</v>
       </c>
       <c r="D58">
-        <v>14777.480469</v>
+        <v>14719.429690000001</v>
       </c>
       <c r="E58">
-        <v>15129.669921999999</v>
+        <v>15545.75</v>
       </c>
       <c r="F58">
-        <v>15129.669921999999</v>
+        <v>15545.75</v>
       </c>
       <c r="G58">
-        <v>2371540000</v>
+        <v>2206620000</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
-        <v>6.13469727807332E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B59">
-        <v>15132.490234000001</v>
+        <v>15558.009770000001</v>
       </c>
       <c r="C59">
-        <v>15721</v>
+        <v>16174.509770000001</v>
       </c>
       <c r="D59">
-        <v>14719.429688</v>
+        <v>15522.179690000001</v>
       </c>
       <c r="E59">
-        <v>15545.75</v>
+        <v>16086.410159999999</v>
       </c>
       <c r="F59">
-        <v>15545.75</v>
+        <v>16086.410159999999</v>
       </c>
       <c r="G59">
-        <v>2206620000</v>
+        <v>1820260000</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
-        <v>3.8890477171941162E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B60">
-        <v>15558.009765999999</v>
+        <v>16087.12012</v>
       </c>
       <c r="C60">
-        <v>16174.509765999999</v>
+        <v>16588.25</v>
       </c>
       <c r="D60">
-        <v>15522.179688</v>
+        <v>15703.79004</v>
       </c>
       <c r="E60">
-        <v>16086.410156</v>
+        <v>16576.660159999999</v>
       </c>
       <c r="F60">
-        <v>16086.410156</v>
+        <v>16576.660159999999</v>
       </c>
       <c r="G60">
-        <v>1820260000</v>
+        <v>2057160000</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
-        <v>3.9625891053705287E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B61">
-        <v>16087.120117</v>
+        <v>16572.16992</v>
       </c>
       <c r="C61">
-        <v>16588.25</v>
+        <v>16573.070309999999</v>
       </c>
       <c r="D61">
-        <v>15703.790039</v>
+        <v>15617.54981</v>
       </c>
       <c r="E61">
-        <v>16576.660156000002</v>
+        <v>15698.849609999999</v>
       </c>
       <c r="F61">
-        <v>16576.660156000002</v>
+        <v>15698.849609999999</v>
       </c>
       <c r="G61">
-        <v>2057160000</v>
+        <v>2177040000</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
-        <v>3.1151000263274664E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B62">
-        <v>16572.169922000001</v>
+        <v>15697.690430000001</v>
       </c>
       <c r="C62">
-        <v>16573.070313</v>
+        <v>16398.949219999999</v>
       </c>
       <c r="D62">
-        <v>15617.549805000001</v>
+        <v>15340.690430000001</v>
       </c>
       <c r="E62">
-        <v>15698.849609000001</v>
+        <v>16321.70996</v>
       </c>
       <c r="F62">
-        <v>15698.849609000001</v>
+        <v>16321.70996</v>
       </c>
       <c r="G62">
-        <v>2177040000</v>
+        <v>2067820000</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
-        <v>5.4331509044214243E-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B63">
-        <v>15697.690430000001</v>
+        <v>16321.70996</v>
       </c>
       <c r="C63">
-        <v>16398.949218999998</v>
+        <v>16505.699219999999</v>
       </c>
       <c r="D63">
-        <v>15340.690430000001</v>
+        <v>16046.990229999999</v>
       </c>
       <c r="E63">
-        <v>16321.709961</v>
+        <v>16457.660159999999</v>
       </c>
       <c r="F63">
-        <v>16321.709961</v>
+        <v>16457.660159999999</v>
       </c>
       <c r="G63">
-        <v>2067820000</v>
+        <v>2095940000</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
-        <v>4.4672736548544423E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B64">
-        <v>16321.709961</v>
+        <v>16458.050780000001</v>
       </c>
       <c r="C64">
-        <v>16505.699218999998</v>
+        <v>16631.630860000001</v>
       </c>
       <c r="D64">
-        <v>16046.990234000001</v>
+        <v>16015.320309999999</v>
       </c>
       <c r="E64">
-        <v>16457.660156000002</v>
+        <v>16580.839840000001</v>
       </c>
       <c r="F64">
-        <v>16457.660156000002</v>
+        <v>16580.839840000001</v>
       </c>
       <c r="G64">
-        <v>2095940000</v>
+        <v>1986960000</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
-        <v>1.1272670476293989E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B65">
-        <v>16458.050781000002</v>
+        <v>16580.259770000001</v>
       </c>
       <c r="C65">
-        <v>16631.630859000001</v>
+        <v>16735.509770000001</v>
       </c>
       <c r="D65">
-        <v>16015.320313</v>
+        <v>16341.29981</v>
       </c>
       <c r="E65">
-        <v>16580.839843999998</v>
+        <v>16717.16992</v>
       </c>
       <c r="F65">
-        <v>16580.839843999998</v>
+        <v>16717.16992</v>
       </c>
       <c r="G65">
-        <v>1986960000</v>
+        <v>1643160000</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
-        <v>1.0546818715639672E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B66">
-        <v>16580.259765999999</v>
+        <v>16716.849610000001</v>
       </c>
       <c r="C66">
-        <v>16735.509765999999</v>
+        <v>16978.019530000001</v>
       </c>
       <c r="D66">
-        <v>16341.299805000001</v>
+        <v>16673.650389999999</v>
       </c>
       <c r="E66">
-        <v>16717.169922000001</v>
+        <v>16826.599610000001</v>
       </c>
       <c r="F66">
-        <v>16717.169922000001</v>
+        <v>16826.599610000001</v>
       </c>
       <c r="G66">
-        <v>1643160000</v>
+        <v>1755480000</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
-        <v>9.363544491526099E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B67">
-        <v>16716.849609000001</v>
+        <v>16828.529299999998</v>
       </c>
       <c r="C67">
-        <v>16978.019531000002</v>
+        <v>17151.560549999998</v>
       </c>
       <c r="D67">
-        <v>16673.650390999999</v>
+        <v>16563.300780000001</v>
       </c>
       <c r="E67">
-        <v>16826.599609000001</v>
+        <v>16563.300780000001</v>
       </c>
       <c r="F67">
-        <v>16826.599609000001</v>
+        <v>16563.300780000001</v>
       </c>
       <c r="G67">
-        <v>1755480000</v>
+        <v>1690880000</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="1">C67/B67-1</f>
-        <v>1.5623154368715086E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B68">
-        <v>16828.529297000001</v>
+        <v>16561.699219999999</v>
       </c>
       <c r="C68">
-        <v>17151.560547000001</v>
+        <v>17153.800780000001</v>
       </c>
       <c r="D68">
-        <v>16563.300781000002</v>
+        <v>16333.780269999999</v>
       </c>
       <c r="E68">
-        <v>16563.300781000002</v>
+        <v>17098.449219999999</v>
       </c>
       <c r="F68">
-        <v>16563.300781000002</v>
+        <v>17098.449219999999</v>
       </c>
       <c r="G68">
-        <v>1690880000</v>
+        <v>1482600000</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
-        <v>1.9195453405282725E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B69">
-        <v>16561.699218999998</v>
+        <v>17097.41992</v>
       </c>
       <c r="C69">
-        <v>17153.800781000002</v>
+        <v>17350.640630000002</v>
       </c>
       <c r="D69">
-        <v>16333.780273</v>
+        <v>16934.429690000001</v>
       </c>
       <c r="E69">
-        <v>17098.449218999998</v>
+        <v>17042.900389999999</v>
       </c>
       <c r="F69">
-        <v>17098.449218999998</v>
+        <v>17042.900389999999</v>
       </c>
       <c r="G69">
-        <v>1482600000</v>
+        <v>1870550000</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
-        <v>3.5751256810697907E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B70">
-        <v>17097.419922000001</v>
+        <v>17040.460940000001</v>
       </c>
       <c r="C70">
-        <v>17350.640625</v>
+        <v>17395.539059999999</v>
       </c>
       <c r="D70">
-        <v>16934.429688</v>
+        <v>15855.12012</v>
       </c>
       <c r="E70">
-        <v>17042.900390999999</v>
+        <v>17390.519530000001</v>
       </c>
       <c r="F70">
-        <v>17042.900390999999</v>
+        <v>17390.519530000001</v>
       </c>
       <c r="G70">
-        <v>1870550000</v>
+        <v>2903240000</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
-        <v>1.4810462874235819E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B71">
-        <v>17040.460938</v>
+        <v>17390.900389999999</v>
       </c>
       <c r="C71">
-        <v>17395.539063</v>
+        <v>17894.83008</v>
       </c>
       <c r="D71">
-        <v>15855.120117</v>
+        <v>17278.359380000002</v>
       </c>
       <c r="E71">
-        <v>17390.519531000002</v>
+        <v>17828.240229999999</v>
       </c>
       <c r="F71">
-        <v>17390.519531000002</v>
+        <v>17828.240229999999</v>
       </c>
       <c r="G71">
-        <v>2903240000</v>
+        <v>1516490000</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
-        <v>2.0837354476027192E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B72">
-        <v>17390.900390999999</v>
+        <v>17827.269530000001</v>
       </c>
       <c r="C72">
-        <v>17894.830077999999</v>
+        <v>18103.449219999999</v>
       </c>
       <c r="D72">
-        <v>17278.359375</v>
+        <v>17067.589840000001</v>
       </c>
       <c r="E72">
-        <v>17828.240234000001</v>
+        <v>17823.070309999999</v>
       </c>
       <c r="F72">
-        <v>17828.240234000001</v>
+        <v>17823.070309999999</v>
       </c>
       <c r="G72">
-        <v>1516490000</v>
+        <v>2216900000</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
-        <v>2.8976630057681696E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B73">
-        <v>17827.269531000002</v>
+        <v>17823.070309999999</v>
       </c>
       <c r="C73">
-        <v>18103.449218999998</v>
+        <v>17951.779299999998</v>
       </c>
       <c r="D73">
-        <v>17067.589843999998</v>
+        <v>17136.300780000001</v>
       </c>
       <c r="E73">
-        <v>17823.070313</v>
+        <v>17164.949219999999</v>
       </c>
       <c r="F73">
-        <v>17823.070313</v>
+        <v>17164.949219999999</v>
       </c>
       <c r="G73">
-        <v>2216900000</v>
+        <v>2173260000</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
-        <v>1.5491979156973201E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B74">
-        <v>17823.070313</v>
+        <v>17169.990229999999</v>
       </c>
       <c r="C74">
-        <v>17951.779297000001</v>
+        <v>18244.380860000001</v>
       </c>
       <c r="D74">
-        <v>17136.300781000002</v>
+        <v>17037.759770000001</v>
       </c>
       <c r="E74">
-        <v>17164.949218999998</v>
+        <v>18132.699219999999</v>
       </c>
       <c r="F74">
-        <v>17164.949218999998</v>
+        <v>18132.699219999999</v>
       </c>
       <c r="G74">
-        <v>2173260000</v>
+        <v>1751250000</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
-        <v>7.221482143069391E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B75">
-        <v>17169.990234000001</v>
+        <v>18134.050780000001</v>
       </c>
       <c r="C75">
-        <v>18244.380859000001</v>
+        <v>18288.630860000001</v>
       </c>
       <c r="D75">
-        <v>17037.759765999999</v>
+        <v>17579.269530000001</v>
       </c>
       <c r="E75">
-        <v>18132.699218999998</v>
+        <v>17776.119139999999</v>
       </c>
       <c r="F75">
-        <v>18132.699218999998</v>
+        <v>17776.119139999999</v>
       </c>
       <c r="G75">
-        <v>1751250000</v>
+        <v>2470480000</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
-        <v>6.2573747006127833E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B76">
-        <v>18134.050781000002</v>
+        <v>17778.519530000001</v>
       </c>
       <c r="C76">
-        <v>18288.630859000001</v>
+        <v>18175.560549999998</v>
       </c>
       <c r="D76">
-        <v>17579.269531000002</v>
+        <v>17585.009770000001</v>
       </c>
       <c r="E76">
-        <v>17776.119140999999</v>
+        <v>17840.519530000001</v>
       </c>
       <c r="F76">
-        <v>17776.119140999999</v>
+        <v>17840.519530000001</v>
       </c>
       <c r="G76">
-        <v>2470480000</v>
+        <v>2174880000</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
-        <v>8.5242993894094621E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B77">
-        <v>17778.519531000002</v>
+        <v>17859.269530000001</v>
       </c>
       <c r="C77">
-        <v>18175.560547000001</v>
+        <v>18351.359380000002</v>
       </c>
       <c r="D77">
-        <v>17585.009765999999</v>
+        <v>17733.119139999999</v>
       </c>
       <c r="E77">
-        <v>17840.519531000002</v>
+        <v>18010.679690000001</v>
       </c>
       <c r="F77">
-        <v>17840.519531000002</v>
+        <v>18010.679690000001</v>
       </c>
       <c r="G77">
-        <v>2174880000</v>
+        <v>1832450000</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
-        <v>2.2332625352054158E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B78">
-        <v>17859.269531000002</v>
+        <v>18017.820309999999</v>
       </c>
       <c r="C78">
-        <v>18351.359375</v>
+        <v>18188.810549999998</v>
       </c>
       <c r="D78">
-        <v>17733.119140999999</v>
+        <v>17576.5</v>
       </c>
       <c r="E78">
-        <v>18010.679688</v>
+        <v>17619.509770000001</v>
       </c>
       <c r="F78">
-        <v>18010.679688</v>
+        <v>17619.509770000001</v>
       </c>
       <c r="G78">
-        <v>1832450000</v>
+        <v>2219240000</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
-        <v>2.7553749784997139E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B79">
-        <v>18017.820313</v>
+        <v>17638.119139999999</v>
       </c>
       <c r="C79">
-        <v>18188.810547000001</v>
+        <v>18137.119139999999</v>
       </c>
       <c r="D79">
-        <v>17576.5</v>
+        <v>17399.16992</v>
       </c>
       <c r="E79">
-        <v>17619.509765999999</v>
+        <v>17689.859380000002</v>
       </c>
       <c r="F79">
-        <v>17619.509765999999</v>
+        <v>17689.859380000002</v>
       </c>
       <c r="G79">
-        <v>2219240000</v>
+        <v>2034220000</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
-        <v>9.4900621179261346E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B80">
-        <v>17638.119140999999</v>
+        <v>17696.740229999999</v>
       </c>
       <c r="C80">
-        <v>18137.119140999999</v>
+        <v>17704.759770000001</v>
       </c>
       <c r="D80">
-        <v>17399.169922000001</v>
+        <v>15370.33008</v>
       </c>
       <c r="E80">
-        <v>17689.859375</v>
+        <v>16528.029299999998</v>
       </c>
       <c r="F80">
-        <v>17689.859375</v>
+        <v>16528.029299999998</v>
       </c>
       <c r="G80">
-        <v>2034220000</v>
+        <v>2726340000</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
-        <v>2.8290998377489718E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B81">
-        <v>17696.740234000001</v>
+        <v>16528.029299999998</v>
       </c>
       <c r="C81">
-        <v>17704.759765999999</v>
+        <v>16933.429690000001</v>
       </c>
       <c r="D81">
-        <v>15370.330078000001</v>
+        <v>15942.37012</v>
       </c>
       <c r="E81">
-        <v>16528.029297000001</v>
+        <v>16284.700199999999</v>
       </c>
       <c r="F81">
-        <v>16528.029297000001</v>
+        <v>16284.700199999999</v>
       </c>
       <c r="G81">
-        <v>2726340000</v>
+        <v>2724080000</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
-        <v>4.5316436213438394E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B82">
-        <v>16528.029297000001</v>
+        <v>16278.62012</v>
       </c>
       <c r="C82">
-        <v>16933.429688</v>
+        <v>17799.960940000001</v>
       </c>
       <c r="D82">
-        <v>15942.370117</v>
+        <v>16013.660159999999</v>
       </c>
       <c r="E82">
-        <v>16284.700194999999</v>
+        <v>17663.539059999999</v>
       </c>
       <c r="F82">
-        <v>16284.700194999999</v>
+        <v>17663.539059999999</v>
       </c>
       <c r="G82">
-        <v>2724080000</v>
+        <v>2605470000</v>
       </c>
       <c r="H82">
-        <f t="shared" si="1"/>
-        <v>2.4528053751307288E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B83">
-        <v>16278.620117</v>
+        <v>17672.619139999999</v>
       </c>
       <c r="C83">
-        <v>17799.960938</v>
+        <v>17977.849610000001</v>
       </c>
       <c r="D83">
-        <v>16013.660156</v>
+        <v>17210.429690000001</v>
       </c>
       <c r="E83">
-        <v>17663.539063</v>
+        <v>17719.91992</v>
       </c>
       <c r="F83">
-        <v>17663.539063</v>
+        <v>17719.91992</v>
       </c>
       <c r="G83">
-        <v>2605470000</v>
+        <v>2334610000</v>
       </c>
       <c r="H83">
-        <f t="shared" si="1"/>
-        <v>9.3456374684439014E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B84">
-        <v>17672.619140999999</v>
+        <v>17719.720700000002</v>
       </c>
       <c r="C84">
-        <v>17977.849609000001</v>
+        <v>17901.58008</v>
       </c>
       <c r="D84">
-        <v>17210.429688</v>
+        <v>17116.730469999999</v>
       </c>
       <c r="E84">
-        <v>17719.919922000001</v>
+        <v>17425.029299999998</v>
       </c>
       <c r="F84">
-        <v>17719.919922000001</v>
+        <v>17425.029299999998</v>
       </c>
       <c r="G84">
-        <v>2334610000</v>
+        <v>2521440000</v>
       </c>
       <c r="H84">
-        <f t="shared" si="1"/>
-        <v>1.7271377013488243E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B85">
-        <v>17719.720702999999</v>
+        <v>17405.480469999999</v>
       </c>
       <c r="C85">
-        <v>17901.580077999999</v>
+        <v>17405.480469999999</v>
       </c>
       <c r="D85">
-        <v>17116.730468999998</v>
+        <v>15450.559569999999</v>
       </c>
       <c r="E85">
-        <v>17425.029297000001</v>
+        <v>16466.300780000001</v>
       </c>
       <c r="F85">
-        <v>17425.029297000001</v>
+        <v>16466.300780000001</v>
       </c>
       <c r="G85">
-        <v>2521440000</v>
+        <v>2844080000</v>
       </c>
       <c r="H85">
-        <f t="shared" si="1"/>
-        <v>1.0263106176905623E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B86">
-        <v>17405.480468999998</v>
+        <v>16453.630860000001</v>
       </c>
       <c r="C86">
-        <v>17405.480468999998</v>
+        <v>16795.980469999999</v>
       </c>
       <c r="D86">
-        <v>15450.559569999999</v>
+        <v>15503.009770000001</v>
       </c>
       <c r="E86">
-        <v>16466.300781000002</v>
+        <v>16516.5</v>
       </c>
       <c r="F86">
-        <v>16466.300781000002</v>
+        <v>16516.5</v>
       </c>
       <c r="G86">
-        <v>2844080000</v>
+        <v>2491810000</v>
       </c>
       <c r="H86">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B87">
-        <v>16453.630859000001</v>
+        <v>16545.66992</v>
       </c>
       <c r="C87">
-        <v>16795.980468999998</v>
+        <v>17790.109380000002</v>
       </c>
       <c r="D87">
-        <v>15503.009765999999</v>
+        <v>16545.66992</v>
       </c>
       <c r="E87">
-        <v>16516.5</v>
+        <v>17685.089840000001</v>
       </c>
       <c r="F87">
-        <v>16516.5</v>
+        <v>17685.089840000001</v>
       </c>
       <c r="G87">
-        <v>2491810000</v>
+        <v>2407750000</v>
       </c>
       <c r="H87">
-        <f t="shared" si="1"/>
-        <v>2.080693391834143E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B88">
-        <v>16545.669922000001</v>
+        <v>17661.740229999999</v>
       </c>
       <c r="C88">
-        <v>17790.109375</v>
+        <v>18167.630860000001</v>
       </c>
       <c r="D88">
-        <v>16545.669922000001</v>
+        <v>17484.230469999999</v>
       </c>
       <c r="E88">
-        <v>17685.089843999998</v>
+        <v>17773.640630000002</v>
       </c>
       <c r="F88">
-        <v>17685.089843999998</v>
+        <v>17773.640630000002</v>
       </c>
       <c r="G88">
-        <v>2407750000</v>
+        <v>2096650000</v>
       </c>
       <c r="H88">
-        <f t="shared" si="1"/>
-        <v>7.5212394473391786E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B89">
-        <v>17661.740234000001</v>
+        <v>17783.779299999998</v>
       </c>
       <c r="C89">
-        <v>18167.630859000001</v>
+        <v>17934.609380000002</v>
       </c>
       <c r="D89">
-        <v>17484.230468999998</v>
+        <v>17331.070309999999</v>
       </c>
       <c r="E89">
-        <v>17773.640625</v>
+        <v>17787.199219999999</v>
       </c>
       <c r="F89">
-        <v>17773.640625</v>
+        <v>17787.199219999999</v>
       </c>
       <c r="G89">
-        <v>2096650000</v>
+        <v>1879010000</v>
       </c>
       <c r="H89">
-        <f t="shared" si="1"/>
-        <v>2.8643305716054446E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B90">
-        <v>17783.779297000001</v>
+        <v>17754.550780000001</v>
       </c>
       <c r="C90">
-        <v>17934.609375</v>
+        <v>18016</v>
       </c>
       <c r="D90">
-        <v>17331.070313</v>
+        <v>17063.08008</v>
       </c>
       <c r="E90">
-        <v>17787.199218999998</v>
+        <v>17929.990229999999</v>
       </c>
       <c r="F90">
-        <v>17787.199218999998</v>
+        <v>17929.990229999999</v>
       </c>
       <c r="G90">
-        <v>1879010000</v>
+        <v>2350020000</v>
       </c>
       <c r="H90">
-        <f t="shared" si="1"/>
-        <v>8.481328714276426E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B91">
-        <v>17754.550781000002</v>
+        <v>17924.240229999999</v>
       </c>
       <c r="C91">
-        <v>18016</v>
+        <v>18622.009770000001</v>
       </c>
       <c r="D91">
-        <v>17063.080077999999</v>
+        <v>17713.449219999999</v>
       </c>
       <c r="E91">
-        <v>17929.990234000001</v>
+        <v>18432.240229999999</v>
       </c>
       <c r="F91">
-        <v>17929.990234000001</v>
+        <v>18432.240229999999</v>
       </c>
       <c r="G91">
-        <v>2350020000</v>
+        <v>1816520000</v>
       </c>
       <c r="H91">
-        <f t="shared" si="1"/>
-        <v>1.472575804507481E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B92">
-        <v>17924.240234000001</v>
+        <v>18434.5</v>
       </c>
       <c r="C92">
-        <v>18622.009765999999</v>
+        <v>18722.609380000002</v>
       </c>
       <c r="D92">
-        <v>17713.449218999998</v>
+        <v>18247.789059999999</v>
       </c>
       <c r="E92">
-        <v>18432.240234000001</v>
+        <v>18400.880860000001</v>
       </c>
       <c r="F92">
-        <v>18432.240234000001</v>
+        <v>18400.880860000001</v>
       </c>
       <c r="G92">
-        <v>1816520000</v>
+        <v>1695750000</v>
       </c>
       <c r="H92">
-        <f t="shared" si="1"/>
-        <v>3.8928820574297918E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B93">
-        <v>18434.5</v>
+        <v>18396.570309999999</v>
       </c>
       <c r="C93">
-        <v>18722.609375</v>
+        <v>18551.539059999999</v>
       </c>
       <c r="D93">
-        <v>18247.789063</v>
+        <v>17992.210940000001</v>
       </c>
       <c r="E93">
-        <v>18400.880859000001</v>
+        <v>18308.150389999999</v>
       </c>
       <c r="F93">
-        <v>18400.880859000001</v>
+        <v>18308.150389999999</v>
       </c>
       <c r="G93">
-        <v>1695750000</v>
+        <v>2101120000</v>
       </c>
       <c r="H93">
-        <f t="shared" si="1"/>
-        <v>1.5628814179934336E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B94">
-        <v>18396.570313</v>
+        <v>18279.599610000001</v>
       </c>
       <c r="C94">
-        <v>18551.539063</v>
+        <v>18399.960940000001</v>
       </c>
       <c r="D94">
-        <v>17992.210938</v>
+        <v>17959.949219999999</v>
       </c>
       <c r="E94">
-        <v>18308.150390999999</v>
+        <v>18142.41992</v>
       </c>
       <c r="F94">
-        <v>18308.150390999999</v>
+        <v>18142.41992</v>
       </c>
       <c r="G94">
-        <v>2101120000</v>
+        <v>1793690000</v>
       </c>
       <c r="H94">
-        <f t="shared" si="1"/>
-        <v>8.423784833985648E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B95">
-        <v>18279.599609000001</v>
+        <v>18158.240229999999</v>
       </c>
       <c r="C95">
-        <v>18399.960938</v>
+        <v>19225.289059999999</v>
       </c>
       <c r="D95">
-        <v>17959.949218999998</v>
+        <v>17883.560549999998</v>
       </c>
       <c r="E95">
-        <v>18142.419922000001</v>
+        <v>19123.58008</v>
       </c>
       <c r="F95">
-        <v>18142.419922000001</v>
+        <v>19123.58008</v>
       </c>
       <c r="G95">
-        <v>1793690000</v>
+        <v>2107770000</v>
       </c>
       <c r="H95">
-        <f t="shared" si="1"/>
-        <v>6.5844619999630982E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B96">
-        <v>18158.240234000001</v>
+        <v>19149.199219999999</v>
       </c>
       <c r="C96">
-        <v>19225.289063</v>
+        <v>19987.630860000001</v>
       </c>
       <c r="D96">
-        <v>17883.560547000001</v>
+        <v>19138.789059999999</v>
       </c>
       <c r="E96">
-        <v>19123.580077999999</v>
+        <v>19762.599610000001</v>
       </c>
       <c r="F96">
-        <v>19123.580077999999</v>
+        <v>19762.599610000001</v>
       </c>
       <c r="G96">
-        <v>2107770000</v>
+        <v>5952470000</v>
       </c>
       <c r="H96">
-        <f t="shared" si="1"/>
-        <v>5.8763889851067619E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B97">
-        <v>19149.199218999998</v>
+        <v>19872.859380000002</v>
       </c>
       <c r="C97">
-        <v>19987.630859000001</v>
+        <v>20125.58008</v>
       </c>
       <c r="D97">
-        <v>19138.789063</v>
+        <v>19677.939450000002</v>
       </c>
       <c r="E97">
-        <v>19762.599609000001</v>
+        <v>19864.089840000001</v>
       </c>
       <c r="F97">
-        <v>19762.599609000001</v>
+        <v>19864.089840000001</v>
       </c>
       <c r="G97">
-        <v>5952470000</v>
+        <v>6482450000</v>
       </c>
       <c r="H97">
-        <f t="shared" si="1"/>
-        <v>4.3784161959530055E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B98">
-        <v>19872.859375</v>
+        <v>19923.810549999998</v>
       </c>
       <c r="C98">
-        <v>20125.580077999999</v>
+        <v>20851.33008</v>
       </c>
       <c r="D98">
-        <v>19677.939452999999</v>
+        <v>19831.089840000001</v>
       </c>
       <c r="E98">
-        <v>19864.089843999998</v>
+        <v>20812.240229999999</v>
       </c>
       <c r="F98">
-        <v>19864.089843999998</v>
+        <v>20812.240229999999</v>
       </c>
       <c r="G98">
-        <v>6482900000</v>
+        <v>6185580000</v>
       </c>
       <c r="H98">
-        <f t="shared" si="1"/>
-        <v>1.2716876732792759E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B99">
-        <v>19923.810547000001</v>
+        <v>20957.289059999999</v>
       </c>
       <c r="C99">
-        <v>20851.330077999999</v>
+        <v>21169.109380000002</v>
       </c>
       <c r="D99">
-        <v>19831.089843999998</v>
+        <v>20412.800780000001</v>
       </c>
       <c r="E99">
-        <v>20812.240234000001</v>
+        <v>20663.220700000002</v>
       </c>
       <c r="F99">
-        <v>20812.240234000001</v>
+        <v>20663.220700000002</v>
       </c>
       <c r="G99">
-        <v>6185580000</v>
+        <v>6941970000</v>
       </c>
       <c r="H99">
-        <f t="shared" si="1"/>
-        <v>4.6553320149877564E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B100">
-        <v>20957.289063</v>
+        <v>20665.16992</v>
       </c>
       <c r="C100">
-        <v>21169.109375</v>
+        <v>21070.900389999999</v>
       </c>
       <c r="D100">
-        <v>20412.800781000002</v>
+        <v>20379.550780000001</v>
       </c>
       <c r="E100">
-        <v>20663.220702999999</v>
+        <v>20940.509770000001</v>
       </c>
       <c r="F100">
-        <v>20663.220702999999</v>
+        <v>20940.509770000001</v>
       </c>
       <c r="G100">
-        <v>6941970000</v>
+        <v>5392630000</v>
       </c>
       <c r="H100">
-        <f t="shared" si="1"/>
-        <v>1.0107238172038624E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B101">
-        <v>20665.169922000001</v>
+        <v>20962.730469999999</v>
       </c>
       <c r="C101">
-        <v>21070.900390999999</v>
+        <v>21112.320309999999</v>
       </c>
       <c r="D101">
-        <v>20379.550781000002</v>
+        <v>20553.449219999999</v>
       </c>
       <c r="E101">
-        <v>20940.509765999999</v>
+        <v>21008.650389999999</v>
       </c>
       <c r="F101">
-        <v>20940.509765999999</v>
+        <v>21008.650389999999</v>
       </c>
       <c r="G101">
-        <v>5392630000</v>
+        <v>6613570000</v>
       </c>
       <c r="H101">
-        <f t="shared" si="1"/>
-        <v>1.9633541390243314E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B102">
-        <v>20962.730468999998</v>
+        <v>21030.550780000001</v>
       </c>
       <c r="C102">
-        <v>21112.320313</v>
+        <v>21535.029299999998</v>
       </c>
       <c r="D102">
-        <v>20553.449218999998</v>
+        <v>20994.220700000002</v>
       </c>
       <c r="E102">
-        <v>21008.650390999999</v>
+        <v>21349.630860000001</v>
       </c>
       <c r="F102">
-        <v>21008.650390999999</v>
+        <v>21349.630860000001</v>
       </c>
       <c r="G102">
-        <v>6613570000</v>
+        <v>7214590000</v>
       </c>
       <c r="H102">
-        <f t="shared" si="1"/>
-        <v>7.1359904293584187E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B103">
-        <v>21030.550781000002</v>
+        <v>21392.300780000001</v>
       </c>
       <c r="C103">
-        <v>21535.029297000001</v>
+        <v>21929.800780000001</v>
       </c>
       <c r="D103">
-        <v>20994.220702999999</v>
+        <v>21279.300780000001</v>
       </c>
       <c r="E103">
-        <v>21349.630859000001</v>
+        <v>21891.119139999999</v>
       </c>
       <c r="F103">
-        <v>21349.630859000001</v>
+        <v>21891.119139999999</v>
       </c>
       <c r="G103">
-        <v>7214590000</v>
+        <v>5569720000</v>
       </c>
       <c r="H103">
-        <f t="shared" si="1"/>
-        <v>2.3987888917097244E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B104">
-        <v>21392.300781000002</v>
+        <v>21961.41992</v>
       </c>
       <c r="C104">
-        <v>21929.800781000002</v>
+        <v>22179.109380000002</v>
       </c>
       <c r="D104">
-        <v>21279.300781000002</v>
+        <v>21600.339840000001</v>
       </c>
       <c r="E104">
-        <v>21891.119140999999</v>
+        <v>21948.099610000001</v>
       </c>
       <c r="F104">
-        <v>21891.119140999999</v>
+        <v>21948.099610000001</v>
       </c>
       <c r="G104">
-        <v>5569720000</v>
+        <v>6150060000</v>
       </c>
       <c r="H104">
-        <f t="shared" si="1"/>
-        <v>2.5125862126872844E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B105">
-        <v>21961.419922000001</v>
+        <v>21981.769530000001</v>
       </c>
       <c r="C105">
-        <v>22179.109375</v>
+        <v>22419.509770000001</v>
       </c>
       <c r="D105">
-        <v>21600.339843999998</v>
+        <v>21709.630860000001</v>
       </c>
       <c r="E105">
-        <v>21948.099609000001</v>
+        <v>22405.089840000001</v>
       </c>
       <c r="F105">
-        <v>21948.099609000001</v>
+        <v>22405.089840000001</v>
       </c>
       <c r="G105">
-        <v>6150060000</v>
+        <v>6342130000</v>
       </c>
       <c r="H105">
-        <f t="shared" si="1"/>
-        <v>9.912357842669639E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B106">
-        <v>21981.769531000002</v>
+        <v>22423.470700000002</v>
       </c>
       <c r="C106">
-        <v>22419.509765999999</v>
+        <v>23485.25</v>
       </c>
       <c r="D106">
-        <v>21709.630859000001</v>
+        <v>22416</v>
       </c>
       <c r="E106">
-        <v>22405.089843999998</v>
+        <v>23377.240229999999</v>
       </c>
       <c r="F106">
-        <v>22405.089843999998</v>
+        <v>23377.240229999999</v>
       </c>
       <c r="G106">
-        <v>6342130000</v>
+        <v>7302910000</v>
       </c>
       <c r="H106">
-        <f t="shared" si="1"/>
-        <v>1.9913785120104555E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B107">
-        <v>22423.470702999999</v>
+        <v>23442.900389999999</v>
       </c>
       <c r="C107">
-        <v>23485.25</v>
+        <v>24327.820309999999</v>
       </c>
       <c r="D107">
-        <v>22416</v>
+        <v>23242.75</v>
       </c>
       <c r="E107">
-        <v>23377.240234000001</v>
+        <v>24272.349610000001</v>
       </c>
       <c r="F107">
-        <v>23377.240234000001</v>
+        <v>24272.349610000001</v>
       </c>
       <c r="G107">
-        <v>7302910000</v>
+        <v>7335640000</v>
       </c>
       <c r="H107">
-        <f t="shared" si="1"/>
-        <v>4.7351246872677333E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B108">
-        <v>23442.900390999999</v>
+        <v>24305.400389999999</v>
       </c>
       <c r="C108">
-        <v>24327.820313</v>
+        <v>24876.070309999999</v>
       </c>
       <c r="D108">
-        <v>23242.75</v>
+        <v>23921.900389999999</v>
       </c>
       <c r="E108">
-        <v>24272.349609000001</v>
+        <v>24719.220700000002</v>
       </c>
       <c r="F108">
-        <v>24272.349609000001</v>
+        <v>24719.220700000002</v>
       </c>
       <c r="G108">
-        <v>7335640000</v>
+        <v>6589890000</v>
       </c>
       <c r="H108">
-        <f t="shared" si="1"/>
-        <v>3.7747885596089992E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B109">
-        <v>24305.400390999999</v>
+        <v>24809.349610000001</v>
       </c>
       <c r="C109">
-        <v>24876.070313</v>
+        <v>26616.710940000001</v>
       </c>
       <c r="D109">
-        <v>23921.900390999999</v>
+        <v>24741.699219999999</v>
       </c>
       <c r="E109">
-        <v>24719.220702999999</v>
+        <v>26149.390630000002</v>
       </c>
       <c r="F109">
-        <v>24719.220702999999</v>
+        <v>26149.390630000002</v>
       </c>
       <c r="G109">
-        <v>6589890000</v>
+        <v>9116920000</v>
       </c>
       <c r="H109">
-        <f t="shared" si="1"/>
-        <v>2.3479140965368073E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B110">
-        <v>24809.349609000001</v>
+        <v>26083.039059999999</v>
       </c>
       <c r="C110">
-        <v>26616.710938</v>
+        <v>26306.699219999999</v>
       </c>
       <c r="D110">
-        <v>24741.699218999998</v>
+        <v>23360.289059999999</v>
       </c>
       <c r="E110">
-        <v>26149.390625</v>
+        <v>25029.199219999999</v>
       </c>
       <c r="F110">
-        <v>26149.390625</v>
+        <v>25029.199219999999</v>
       </c>
       <c r="G110">
-        <v>9116920000</v>
+        <v>9450250000</v>
       </c>
       <c r="H110">
-        <f t="shared" si="1"/>
-        <v>7.2850008463919869E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B111">
-        <v>26083.039063</v>
+        <v>25024.039059999999</v>
       </c>
       <c r="C111">
-        <v>26306.699218999998</v>
+        <v>25449.150389999999</v>
       </c>
       <c r="D111">
-        <v>23360.289063</v>
+        <v>23509.060549999998</v>
       </c>
       <c r="E111">
-        <v>25029.199218999998</v>
+        <v>24103.109380000002</v>
       </c>
       <c r="F111">
-        <v>25029.199218999998</v>
+        <v>24103.109380000002</v>
       </c>
       <c r="G111">
-        <v>9450250000</v>
+        <v>8873040000</v>
       </c>
       <c r="H111">
-        <f t="shared" si="1"/>
-        <v>8.5749270037045466E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B112">
-        <v>25024.039063</v>
+        <v>24076.599610000001</v>
       </c>
       <c r="C112">
-        <v>25449.150390999999</v>
+        <v>24858.970700000002</v>
       </c>
       <c r="D112">
-        <v>23509.060547000001</v>
+        <v>23344.519530000001</v>
       </c>
       <c r="E112">
-        <v>24103.109375</v>
+        <v>24163.150389999999</v>
       </c>
       <c r="F112">
-        <v>24103.109375</v>
+        <v>24163.150389999999</v>
       </c>
       <c r="G112">
-        <v>8873040000</v>
+        <v>8064550000</v>
       </c>
       <c r="H112">
-        <f t="shared" si="1"/>
-        <v>1.6988117982462692E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B113">
-        <v>24076.599609000001</v>
+        <v>24117.289059999999</v>
       </c>
       <c r="C113">
-        <v>24858.970702999999</v>
+        <v>25086.490229999999</v>
       </c>
       <c r="D113">
-        <v>23344.519531000002</v>
+        <v>23531.310549999998</v>
       </c>
       <c r="E113">
-        <v>24163.150390999999</v>
+        <v>24415.839840000001</v>
       </c>
       <c r="F113">
-        <v>24163.150390999999</v>
+        <v>24415.839840000001</v>
       </c>
       <c r="G113">
-        <v>8064550000</v>
+        <v>7278020000</v>
       </c>
       <c r="H113">
-        <f t="shared" si="1"/>
-        <v>3.2495082640637607E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B114">
-        <v>24117.289063</v>
+        <v>24542.089840000001</v>
       </c>
       <c r="C114">
-        <v>25086.490234000001</v>
+        <v>25402.83008</v>
       </c>
       <c r="D114">
-        <v>23531.310547000001</v>
+        <v>23997.210940000001</v>
       </c>
       <c r="E114">
-        <v>24415.839843999998</v>
+        <v>24271.410159999999</v>
       </c>
       <c r="F114">
-        <v>24415.839843999998</v>
+        <v>24271.410159999999</v>
       </c>
       <c r="G114">
-        <v>7278020000</v>
+        <v>7411110000</v>
       </c>
       <c r="H114">
-        <f t="shared" si="1"/>
-        <v>4.0186986541821623E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B115">
-        <v>24542.089843999998</v>
+        <v>24161.529299999998</v>
       </c>
       <c r="C115">
-        <v>25402.830077999999</v>
+        <v>25587.240229999999</v>
       </c>
       <c r="D115">
-        <v>23997.210938</v>
+        <v>24077.560549999998</v>
       </c>
       <c r="E115">
-        <v>24271.410156000002</v>
+        <v>25415.189450000002</v>
       </c>
       <c r="F115">
-        <v>24271.410156000002</v>
+        <v>25415.189450000002</v>
       </c>
       <c r="G115">
-        <v>7411110000</v>
+        <v>5408500000</v>
       </c>
       <c r="H115">
-        <f t="shared" si="1"/>
-        <v>3.5072002403675917E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B116">
-        <v>24161.529297000001</v>
+        <v>25461.630860000001</v>
       </c>
       <c r="C116">
-        <v>25587.240234000001</v>
+        <v>26167.939450000002</v>
       </c>
       <c r="D116">
-        <v>24077.560547000001</v>
+        <v>24965.769530000001</v>
       </c>
       <c r="E116">
-        <v>25415.189452999999</v>
+        <v>25964.820309999999</v>
       </c>
       <c r="F116">
-        <v>25415.189452999999</v>
+        <v>25964.820309999999</v>
       </c>
       <c r="G116">
-        <v>5408500000</v>
+        <v>5635410000</v>
       </c>
       <c r="H116">
-        <f t="shared" si="1"/>
-        <v>5.9007479182082267E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B117">
-        <v>25461.630859000001</v>
+        <v>25916.070309999999</v>
       </c>
       <c r="C117">
-        <v>26167.939452999999</v>
+        <v>26769.160159999999</v>
       </c>
       <c r="D117">
-        <v>24965.769531000002</v>
+        <v>25754.320309999999</v>
       </c>
       <c r="E117">
-        <v>25964.820313</v>
+        <v>26458.310549999998</v>
       </c>
       <c r="F117">
-        <v>25964.820313</v>
+        <v>26458.310549999998</v>
       </c>
       <c r="G117">
-        <v>5635410000</v>
+        <v>5262500000</v>
       </c>
       <c r="H117">
-        <f t="shared" si="1"/>
-        <v>2.7740116016580219E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B118">
-        <v>25916.070313</v>
+        <v>26598.359380000002</v>
       </c>
       <c r="C118">
-        <v>26769.160156000002</v>
+        <v>26951.810549999998</v>
       </c>
       <c r="D118">
-        <v>25754.320313</v>
+        <v>24122.230469999999</v>
       </c>
       <c r="E118">
-        <v>26458.310547000001</v>
+        <v>25115.759770000001</v>
       </c>
       <c r="F118">
-        <v>26458.310547000001</v>
+        <v>25115.759770000001</v>
       </c>
       <c r="G118">
-        <v>5262500000</v>
+        <v>8373350000</v>
       </c>
       <c r="H118">
-        <f t="shared" si="1"/>
-        <v>3.2917407334401183E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B119">
-        <v>26598.359375</v>
+        <v>25142.08008</v>
       </c>
       <c r="C119">
-        <v>26951.810547000001</v>
+        <v>26277.820309999999</v>
       </c>
       <c r="D119">
-        <v>24122.230468999998</v>
+        <v>24268.740229999999</v>
       </c>
       <c r="E119">
-        <v>25115.759765999999</v>
+        <v>25538.460940000001</v>
       </c>
       <c r="F119">
-        <v>25115.759765999999</v>
+        <v>25538.460940000001</v>
       </c>
       <c r="G119">
-        <v>8373350000</v>
+        <v>7226940000</v>
       </c>
       <c r="H119">
-        <f t="shared" si="1"/>
-        <v>1.3288457645707741E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B120">
-        <v>25142.080077999999</v>
+        <v>25779.570309999999</v>
       </c>
       <c r="C120">
-        <v>26277.820313</v>
+        <v>25980.210940000001</v>
       </c>
       <c r="D120">
-        <v>24268.740234000001</v>
+        <v>21712.529299999998</v>
       </c>
       <c r="E120">
-        <v>25538.460938</v>
+        <v>23327.460940000001</v>
       </c>
       <c r="F120">
-        <v>25538.460938</v>
+        <v>23327.460940000001</v>
       </c>
       <c r="G120">
-        <v>7226940000</v>
+        <v>8101540000</v>
       </c>
       <c r="H120">
-        <f t="shared" si="1"/>
-        <v>4.5172882731918662E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B121">
-        <v>25779.570313</v>
+        <v>23058.609380000002</v>
       </c>
       <c r="C121">
-        <v>25980.210938</v>
+        <v>25109.619139999999</v>
       </c>
       <c r="D121">
-        <v>21712.529297000001</v>
+        <v>22638.410159999999</v>
       </c>
       <c r="E121">
-        <v>23327.460938</v>
+        <v>24999.66992</v>
       </c>
       <c r="F121">
-        <v>23327.460938</v>
+        <v>24999.66992</v>
       </c>
       <c r="G121">
-        <v>8101540000</v>
+        <v>7189200000</v>
       </c>
       <c r="H121">
-        <f t="shared" si="1"/>
-        <v>7.782931312040553E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B122">
-        <v>23058.609375</v>
+        <v>25025.310549999998</v>
       </c>
       <c r="C122">
-        <v>25109.619140999999</v>
+        <v>26241.41992</v>
       </c>
       <c r="D122">
-        <v>22638.410156000002</v>
+        <v>24883.039059999999</v>
       </c>
       <c r="E122">
-        <v>24999.669922000001</v>
+        <v>25916</v>
       </c>
       <c r="F122">
-        <v>24999.669922000001</v>
+        <v>25916</v>
       </c>
       <c r="G122">
-        <v>7189200000</v>
+        <v>5434540000</v>
       </c>
       <c r="H122">
-        <f t="shared" si="1"/>
-        <v>8.8947678181481749E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B123">
-        <v>25025.310547000001</v>
+        <v>26019.66992</v>
       </c>
       <c r="C123">
-        <v>26241.419922000001</v>
+        <v>26155.980469999999</v>
       </c>
       <c r="D123">
-        <v>24883.039063</v>
+        <v>25208</v>
       </c>
       <c r="E123">
-        <v>25916</v>
+        <v>25928.679690000001</v>
       </c>
       <c r="F123">
-        <v>25916</v>
+        <v>25928.679690000001</v>
       </c>
       <c r="G123">
-        <v>5434540000</v>
+        <v>6734060000</v>
       </c>
       <c r="H123">
-        <f t="shared" si="1"/>
-        <v>4.8595176180372457E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B124">
-        <v>26019.669922000001</v>
+        <v>26075.099610000001</v>
       </c>
       <c r="C124">
-        <v>26155.980468999998</v>
+        <v>26695.960940000001</v>
       </c>
       <c r="D124">
-        <v>25208</v>
+        <v>26062.589840000001</v>
       </c>
       <c r="E124">
-        <v>25928.679688</v>
+        <v>26592.910159999999</v>
       </c>
       <c r="F124">
-        <v>25928.679688</v>
+        <v>26592.910159999999</v>
       </c>
       <c r="G124">
-        <v>6734060000</v>
+        <v>5854600000</v>
       </c>
       <c r="H124">
-        <f t="shared" si="1"/>
-        <v>5.2387500459698533E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B125">
-        <v>26075.099609000001</v>
+        <v>26639.060549999998</v>
       </c>
       <c r="C125">
-        <v>26695.960938</v>
+        <v>26689.390630000002</v>
       </c>
       <c r="D125">
-        <v>26062.589843999998</v>
+        <v>24809.509770000001</v>
       </c>
       <c r="E125">
-        <v>26592.910156000002</v>
+        <v>24815.039059999999</v>
       </c>
       <c r="F125">
-        <v>26592.910156000002</v>
+        <v>24815.039059999999</v>
       </c>
       <c r="G125">
-        <v>5854600000</v>
+        <v>6358230000</v>
       </c>
       <c r="H125">
-        <f t="shared" si="1"/>
-        <v>2.3810506510422158E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B126">
-        <v>26639.060547000001</v>
+        <v>24830.160159999999</v>
       </c>
       <c r="C126">
-        <v>26689.390625</v>
+        <v>26907.369139999999</v>
       </c>
       <c r="D126">
-        <v>24809.509765999999</v>
+        <v>24680.570309999999</v>
       </c>
       <c r="E126">
-        <v>24815.039063</v>
+        <v>26599.960940000001</v>
       </c>
       <c r="F126">
-        <v>24815.039063</v>
+        <v>26599.960940000001</v>
       </c>
       <c r="G126">
-        <v>6358230000</v>
+        <v>5544390000</v>
       </c>
       <c r="H126">
-        <f t="shared" si="1"/>
-        <v>1.8893338190812958E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B127">
-        <v>24830.160156000002</v>
+        <v>26805.859380000002</v>
       </c>
       <c r="C127">
-        <v>26907.369140999999</v>
+        <v>26890.640630000002</v>
       </c>
       <c r="D127">
-        <v>24680.570313</v>
+        <v>26616.210940000001</v>
       </c>
       <c r="E127">
-        <v>26599.960938</v>
+        <v>26717.429690000001</v>
       </c>
       <c r="F127">
-        <v>26599.960938</v>
+        <v>26717.429690000001</v>
       </c>
       <c r="G127">
-        <v>5544390000</v>
+        <v>267670000</v>
       </c>
       <c r="H127">
-        <f t="shared" si="1"/>
-        <v>8.3656688960101588E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A128" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B128">
-        <v>26805.859375</v>
-      </c>
-      <c r="C128">
-        <v>27398.679688</v>
-      </c>
-      <c r="D128">
-        <v>26616.210938</v>
-      </c>
-      <c r="E128">
-        <v>26864.269531000002</v>
-      </c>
-      <c r="F128">
-        <v>26864.269531000002</v>
-      </c>
-      <c r="G128">
-        <v>5205170000</v>
-      </c>
-      <c r="H128">
-        <f t="shared" si="1"/>
-        <v>2.2115325784066497E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A129" s="1">
-        <v>43678</v>
-      </c>
-      <c r="B129">
-        <v>26879.859375</v>
-      </c>
-      <c r="C129">
-        <v>27175.589843999998</v>
-      </c>
-      <c r="D129">
-        <v>25339.599609000001</v>
-      </c>
-      <c r="E129">
-        <v>26403.279297000001</v>
-      </c>
-      <c r="F129">
-        <v>26403.279297000001</v>
-      </c>
-      <c r="G129">
-        <v>8170730000</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="1"/>
-        <v>1.1001935124520967E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A130" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B130">
-        <v>26198.259765999999</v>
-      </c>
-      <c r="C130">
-        <v>27306.730468999998</v>
-      </c>
-      <c r="D130">
-        <v>25978.220702999999</v>
-      </c>
-      <c r="E130">
-        <v>26916.830077999999</v>
-      </c>
-      <c r="F130">
-        <v>26916.830077999999</v>
-      </c>
-      <c r="G130">
-        <v>5045520000</v>
-      </c>
-      <c r="H130">
-        <f t="shared" si="1"/>
-        <v>4.2310852434502833E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A131" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B131">
-        <v>26962.539063</v>
-      </c>
-      <c r="C131">
-        <v>27204.359375</v>
-      </c>
-      <c r="D131">
-        <v>25743.460938</v>
-      </c>
-      <c r="E131">
-        <v>27046.230468999998</v>
-      </c>
-      <c r="F131">
-        <v>27046.230468999998</v>
-      </c>
-      <c r="G131">
-        <v>5658040000</v>
-      </c>
-      <c r="H131">
-        <f t="shared" ref="H131:H135" si="2">C131/B131-1</f>
-        <v>8.9687514753327147E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A132" s="1">
-        <v>43770</v>
-      </c>
-      <c r="B132">
-        <v>27142.949218999998</v>
-      </c>
-      <c r="C132">
-        <v>28174.970702999999</v>
-      </c>
-      <c r="D132">
-        <v>27142.949218999998</v>
-      </c>
-      <c r="E132">
-        <v>28051.410156000002</v>
-      </c>
-      <c r="F132">
-        <v>28051.410156000002</v>
-      </c>
-      <c r="G132">
-        <v>4925180000</v>
-      </c>
-      <c r="H132">
-        <f t="shared" si="2"/>
-        <v>3.8021715167104508E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A133" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B133">
-        <v>28109.740234000001</v>
-      </c>
-      <c r="C133">
-        <v>28701.660156000002</v>
-      </c>
-      <c r="D133">
-        <v>27325.130859000001</v>
-      </c>
-      <c r="E133">
-        <v>28538.439452999999</v>
-      </c>
-      <c r="F133">
-        <v>28538.439452999999</v>
-      </c>
-      <c r="G133">
-        <v>5086880000</v>
-      </c>
-      <c r="H133">
-        <f t="shared" si="2"/>
-        <v>2.1057466809460079E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A134" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B134">
-        <v>28638.970702999999</v>
-      </c>
-      <c r="C134">
-        <v>28988.009765999999</v>
-      </c>
-      <c r="D134">
-        <v>28418.630859000001</v>
-      </c>
-      <c r="E134">
-        <v>28956.900390999999</v>
-      </c>
-      <c r="F134">
-        <v>28956.900390999999</v>
-      </c>
-      <c r="G134">
-        <v>1569880000</v>
-      </c>
-      <c r="H134">
-        <f t="shared" si="2"/>
-        <v>1.2187556131807442E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" s="1">
-        <v>43839</v>
-      </c>
-      <c r="B135">
-        <v>28852</v>
-      </c>
-      <c r="C135">
-        <v>28988.009765999999</v>
-      </c>
-      <c r="D135">
-        <v>28844.310547000001</v>
-      </c>
-      <c r="E135">
-        <v>28956.900390999999</v>
-      </c>
-      <c r="F135">
-        <v>28956.900390999999</v>
-      </c>
-      <c r="G135">
-        <v>282850650</v>
-      </c>
-      <c r="H135">
-        <f t="shared" si="2"/>
-        <v>4.7140498405655595E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://finance.yahoo.com/quote/%5EDJI?p=%5eDJI&amp;.tsrc=fin-srch"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>